--- a/Code/Results/Cases/Case_4_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_49/res_line/pl_mw.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.629871809244264</v>
+        <v>2.629871809244207</v>
       </c>
       <c r="C2">
-        <v>1.029586920938584</v>
+        <v>1.029586920938073</v>
       </c>
       <c r="D2">
-        <v>0.204473934354084</v>
+        <v>0.2044739343541124</v>
       </c>
       <c r="E2">
-        <v>0.03584219218927132</v>
+        <v>0.03584219218924645</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.724620564670587</v>
+        <v>2.724620564670573</v>
       </c>
       <c r="H2">
-        <v>1.896432796463898</v>
+        <v>1.896432796463884</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1775596569958928</v>
+        <v>0.1775596569958751</v>
       </c>
       <c r="L2">
         <v>0.7231460335854933</v>
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.259791557440053</v>
+        <v>2.259791557439883</v>
       </c>
       <c r="C3">
-        <v>0.8828869071056715</v>
+        <v>0.8828869071051884</v>
       </c>
       <c r="D3">
-        <v>0.1758384556354429</v>
+        <v>0.175838455635656</v>
       </c>
       <c r="E3">
-        <v>0.03316094362367572</v>
+        <v>0.0331609436236473</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.418263813261504</v>
+        <v>2.418263813261476</v>
       </c>
       <c r="H3">
-        <v>1.705492261940265</v>
+        <v>1.70549226194025</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1540371178485174</v>
+        <v>0.1540371178485316</v>
       </c>
       <c r="L3">
-        <v>0.6223932392740323</v>
+        <v>0.6223932392740252</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.036909542235037</v>
+        <v>2.036909542235207</v>
       </c>
       <c r="C4">
-        <v>0.7947166177698932</v>
+        <v>0.7947166177696374</v>
       </c>
       <c r="D4">
         <v>0.1586555061710584</v>
       </c>
       <c r="E4">
-        <v>0.03157706912168301</v>
+        <v>0.03157706912168123</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.236208606202496</v>
+        <v>2.23620860620251</v>
       </c>
       <c r="H4">
-        <v>1.592323905251902</v>
+        <v>1.59232390525186</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1399637028262113</v>
+        <v>0.1399637028262006</v>
       </c>
       <c r="L4">
         <v>0.5618689053165298</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.947006891812492</v>
+        <v>1.947006891812379</v>
       </c>
       <c r="C5">
-        <v>0.7591882729659858</v>
+        <v>0.7591882729659574</v>
       </c>
       <c r="D5">
-        <v>0.1517389876459276</v>
+        <v>0.1517389876458282</v>
       </c>
       <c r="E5">
-        <v>0.03094564425620128</v>
+        <v>0.03094564425618174</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>2.163348558492814</v>
       </c>
       <c r="H5">
-        <v>1.547105021905168</v>
+        <v>1.547105021905153</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1343090377379852</v>
+        <v>0.1343090377379532</v>
       </c>
       <c r="L5">
         <v>0.5374922571306726</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.932129772550979</v>
+        <v>1.932129772550837</v>
       </c>
       <c r="C6">
-        <v>0.7533109852631696</v>
+        <v>0.7533109852628854</v>
       </c>
       <c r="D6">
-        <v>0.1505952765258343</v>
+        <v>0.1505952765256069</v>
       </c>
       <c r="E6">
-        <v>0.0308415971157423</v>
+        <v>0.03084159711574763</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.151325212905874</v>
+        <v>2.151325212905903</v>
       </c>
       <c r="H6">
-        <v>1.539647279010339</v>
+        <v>1.539647279010353</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1333745956162531</v>
+        <v>0.1333745956162495</v>
       </c>
       <c r="L6">
         <v>0.5334605599776197</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.035693555879845</v>
+        <v>2.035693555879959</v>
       </c>
       <c r="C7">
-        <v>0.7942359392679919</v>
+        <v>0.7942359392682476</v>
       </c>
       <c r="D7">
-        <v>0.1585618991015991</v>
+        <v>0.1585618991017128</v>
       </c>
       <c r="E7">
-        <v>0.03156849885585444</v>
+        <v>0.03156849885582069</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>2.235220849300077</v>
       </c>
       <c r="H7">
-        <v>1.591710587546615</v>
+        <v>1.591710587546601</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1398871323116886</v>
+        <v>0.1398871323116566</v>
       </c>
       <c r="L7">
-        <v>0.5615390503321933</v>
+        <v>0.5615390503322004</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,13 +643,13 @@
         <v>2.501257371108636</v>
       </c>
       <c r="C8">
-        <v>0.9785604780140034</v>
+        <v>0.978560478013776</v>
       </c>
       <c r="D8">
-        <v>0.1945081629661161</v>
+        <v>0.1945081629662582</v>
       </c>
       <c r="E8">
-        <v>0.03490367785545345</v>
+        <v>0.03490367785549253</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1693644173508737</v>
+        <v>0.1693644173508417</v>
       </c>
       <c r="L8">
-        <v>0.688097535426472</v>
+        <v>0.6880975354264649</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.457507620130912</v>
+        <v>3.457507620131025</v>
       </c>
       <c r="C9">
-        <v>1.359114220597178</v>
+        <v>1.359114220597348</v>
       </c>
       <c r="D9">
-        <v>0.2689258715453349</v>
+        <v>0.268925871545207</v>
       </c>
       <c r="E9">
-        <v>0.04202487664765364</v>
+        <v>0.0420248766476945</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.425342224904881</v>
+        <v>3.425342224904909</v>
       </c>
       <c r="H9">
         <v>2.335031917412991</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2307460502199135</v>
+        <v>0.2307460502198992</v>
       </c>
       <c r="L9">
         <v>0.9494221823385516</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.200736773317772</v>
+        <v>4.200736773317828</v>
       </c>
       <c r="C10">
-        <v>1.656855662051726</v>
+        <v>1.656855662051669</v>
       </c>
       <c r="D10">
-        <v>0.3272248510274238</v>
+        <v>0.3272248510272249</v>
       </c>
       <c r="E10">
-        <v>0.0477484211632877</v>
+        <v>0.04774842116331257</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>4.070045093627328</v>
       </c>
       <c r="H10">
-        <v>2.740317788167147</v>
+        <v>2.740317788167175</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.279067658113469</v>
+        <v>0.2790676581134619</v>
       </c>
       <c r="L10">
         <v>1.15353122661304</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.551587951440126</v>
+        <v>4.551587951440013</v>
       </c>
       <c r="C11">
-        <v>1.798035454708725</v>
+        <v>1.798035454708554</v>
       </c>
       <c r="D11">
-        <v>0.3548684790748666</v>
+        <v>0.3548684790748382</v>
       </c>
       <c r="E11">
-        <v>0.05049590452957275</v>
+        <v>0.05049590452955499</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.378821093253094</v>
+        <v>4.378821093253151</v>
       </c>
       <c r="H11">
-        <v>2.934901214005933</v>
+        <v>2.934901214005947</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3020342251812096</v>
+        <v>0.3020342251811954</v>
       </c>
       <c r="L11">
-        <v>1.250134038513281</v>
+        <v>1.250134038513323</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.68667717548243</v>
+        <v>4.686677175482373</v>
       </c>
       <c r="C12">
-        <v>1.852504300414921</v>
+        <v>1.852504300414978</v>
       </c>
       <c r="D12">
         <v>0.3655318846767841</v>
       </c>
       <c r="E12">
-        <v>0.05156069552113252</v>
+        <v>0.05156069552110054</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>4.498417111999032</v>
       </c>
       <c r="H12">
-        <v>3.01034078794865</v>
+        <v>3.010340787948678</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3109014048419354</v>
+        <v>0.3109014048419851</v>
       </c>
       <c r="L12">
         <v>1.28736809601368</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.657477050485284</v>
+        <v>4.65747705048534</v>
       </c>
       <c r="C13">
-        <v>1.840725394037065</v>
+        <v>1.840725394037236</v>
       </c>
       <c r="D13">
-        <v>0.3632260352258214</v>
+        <v>0.363226035225992</v>
       </c>
       <c r="E13">
-        <v>0.05133022372024243</v>
+        <v>0.05133022372028151</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>4.472533370383871</v>
       </c>
       <c r="H13">
-        <v>2.994010358731401</v>
+        <v>2.994010358731416</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3089836163748174</v>
+        <v>0.3089836163748814</v>
       </c>
       <c r="L13">
-        <v>1.279318025781379</v>
+        <v>1.279318025781407</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.562654614846622</v>
+        <v>4.562654614846736</v>
       </c>
       <c r="C14">
-        <v>1.802495288445186</v>
+        <v>1.802495288445471</v>
       </c>
       <c r="D14">
-        <v>0.355741632662685</v>
+        <v>0.3557416326626566</v>
       </c>
       <c r="E14">
-        <v>0.05058299348611683</v>
+        <v>0.05058299348612749</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>4.388604023540267</v>
       </c>
       <c r="H14">
-        <v>2.941070677262019</v>
+        <v>2.941070677261976</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -909,13 +909,13 @@
         <v>4.504876456260206</v>
       </c>
       <c r="C15">
-        <v>1.779215393951858</v>
+        <v>1.77921539395129</v>
       </c>
       <c r="D15">
-        <v>0.3511837708725096</v>
+        <v>0.3511837708722965</v>
       </c>
       <c r="E15">
-        <v>0.05012858875522852</v>
+        <v>0.0501285887552676</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>4.337556927612269</v>
       </c>
       <c r="H15">
-        <v>2.908881513753172</v>
+        <v>2.908881513753215</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.178096672173922</v>
+        <v>4.178096672173808</v>
       </c>
       <c r="C16">
-        <v>1.647759484498351</v>
+        <v>1.647759484497499</v>
       </c>
       <c r="D16">
-        <v>0.325443635273416</v>
+        <v>0.3254436352730607</v>
       </c>
       <c r="E16">
-        <v>0.04757206278040549</v>
+        <v>0.04757206278041082</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>4.050213626312626</v>
       </c>
       <c r="H16">
-        <v>2.727830199688242</v>
+        <v>2.72783019968827</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2775888904438233</v>
+        <v>0.2775888904437807</v>
       </c>
       <c r="L16">
         <v>1.147302731598899</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.98115415674306</v>
+        <v>3.981154156743287</v>
       </c>
       <c r="C17">
-        <v>1.568704210950955</v>
+        <v>1.568704210950671</v>
       </c>
       <c r="D17">
-        <v>0.3099628344789949</v>
+        <v>0.3099628344790375</v>
       </c>
       <c r="E17">
-        <v>0.04604299423466607</v>
+        <v>0.04604299423459679</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.878197005952785</v>
+        <v>3.8781970059527</v>
       </c>
       <c r="H17">
-        <v>2.619565999855908</v>
+        <v>2.61956599985588</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2647426285104402</v>
+        <v>0.2647426285104473</v>
       </c>
       <c r="L17">
-        <v>1.093149864680996</v>
+        <v>1.093149864680981</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.869050939786632</v>
+        <v>3.869050939786916</v>
       </c>
       <c r="C18">
         <v>1.523760912785065</v>
       </c>
       <c r="D18">
-        <v>0.3011620597055753</v>
+        <v>0.3011620597057174</v>
       </c>
       <c r="E18">
-        <v>0.04517679670537866</v>
+        <v>0.04517679670539998</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.780685795125294</v>
+        <v>3.780685795125322</v>
       </c>
       <c r="H18">
-        <v>2.55823718842997</v>
+        <v>2.558237188429999</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2574445173294251</v>
+        <v>0.257444517329489</v>
       </c>
       <c r="L18">
-        <v>1.062347955923329</v>
+        <v>1.062347955923343</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,13 +1061,13 @@
         <v>3.83128522591835</v>
       </c>
       <c r="C19">
-        <v>1.508629403268912</v>
+        <v>1.50862940326914</v>
       </c>
       <c r="D19">
-        <v>0.298199085598938</v>
+        <v>0.2981990855989238</v>
       </c>
       <c r="E19">
-        <v>0.04488569546270682</v>
+        <v>0.04488569546268018</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2549882902741345</v>
+        <v>0.2549882902741984</v>
       </c>
       <c r="L19">
-        <v>1.05197515103972</v>
+        <v>1.051975151039734</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.001994988405784</v>
+        <v>4.001994988405954</v>
       </c>
       <c r="C20">
-        <v>1.577064000347207</v>
+        <v>1.577064000347661</v>
       </c>
       <c r="D20">
-        <v>0.3115998670340616</v>
+        <v>0.3115998670336779</v>
       </c>
       <c r="E20">
-        <v>0.04620436669057071</v>
+        <v>0.04620436669056538</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.896357708486647</v>
+        <v>3.896357708486676</v>
       </c>
       <c r="H20">
-        <v>2.630991513951983</v>
+        <v>2.630991513952026</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2661005543697925</v>
+        <v>0.2661005543697712</v>
       </c>
       <c r="L20">
-        <v>1.098878027505776</v>
+        <v>1.098878027505769</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,10 +1137,10 @@
         <v>4.590442239560616</v>
       </c>
       <c r="C21">
-        <v>1.813695440415813</v>
+        <v>1.813695440415529</v>
       </c>
       <c r="D21">
-        <v>0.3579343806428454</v>
+        <v>0.357934380642817</v>
       </c>
       <c r="E21">
         <v>0.05080177884866899</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.413179753341865</v>
+        <v>4.413179753341893</v>
       </c>
       <c r="H21">
         <v>2.956570177702432</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3045832514465801</v>
+        <v>0.3045832514465445</v>
       </c>
       <c r="L21">
-        <v>1.260841131145099</v>
+        <v>1.260841131145114</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.988261271315992</v>
+        <v>4.988261271315821</v>
       </c>
       <c r="C22">
-        <v>1.974329061446326</v>
+        <v>1.97432906144661</v>
       </c>
       <c r="D22">
-        <v>0.3893758203709154</v>
+        <v>0.3893758203709581</v>
       </c>
       <c r="E22">
-        <v>0.05395075536759464</v>
+        <v>0.05395075536755201</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.766777417349829</v>
+        <v>4.766777417349857</v>
       </c>
       <c r="H22">
-        <v>3.179756877342683</v>
+        <v>3.179756877342669</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0.3307434310667148</v>
       </c>
       <c r="L22">
-        <v>1.370565893459798</v>
+        <v>1.370565893459812</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.774576181963766</v>
+        <v>4.774576181963937</v>
       </c>
       <c r="C23">
-        <v>1.88797896223025</v>
+        <v>1.887978962229965</v>
       </c>
       <c r="D23">
-        <v>0.3724760060981396</v>
+        <v>0.372476006098168</v>
       </c>
       <c r="E23">
-        <v>0.05225548813201897</v>
+        <v>0.05225548813193726</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.576440216126315</v>
+        <v>4.576440216126258</v>
       </c>
       <c r="H23">
-        <v>3.059577543635172</v>
+        <v>3.059577543635143</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3166780205873465</v>
+        <v>0.316678020587311</v>
       </c>
       <c r="L23">
-        <v>1.311606421019135</v>
+        <v>1.311606421019093</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.992569383566206</v>
+        <v>3.992569383566149</v>
       </c>
       <c r="C24">
-        <v>1.573282974794438</v>
+        <v>1.573282974794097</v>
       </c>
       <c r="D24">
-        <v>0.3108594576488173</v>
+        <v>0.3108594576491868</v>
       </c>
       <c r="E24">
-        <v>0.04613137034113635</v>
+        <v>0.04613137034115233</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>3.888142977975519</v>
       </c>
       <c r="H24">
-        <v>2.625823213894947</v>
+        <v>2.625823213894975</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2654863660205322</v>
+        <v>0.2654863660204825</v>
       </c>
       <c r="L24">
         <v>1.096287301429356</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.19283661016658</v>
+        <v>3.192836610166466</v>
       </c>
       <c r="C25">
-        <v>1.253508145538888</v>
+        <v>1.253508145539115</v>
       </c>
       <c r="D25">
-        <v>0.2482573434870403</v>
+        <v>0.2482573434868129</v>
       </c>
       <c r="E25">
-        <v>0.04002316759070013</v>
+        <v>0.04002316759072322</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.199125392260086</v>
+        <v>3.199125392260072</v>
       </c>
       <c r="H25">
-        <v>2.193191746591907</v>
+        <v>2.193191746591921</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2136591296254693</v>
+        <v>0.2136591296254622</v>
       </c>
       <c r="L25">
-        <v>0.8769328617997019</v>
+        <v>0.8769328617996877</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_49/res_line/pl_mw.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.629871809244207</v>
+        <v>2.629871809244264</v>
       </c>
       <c r="C2">
-        <v>1.029586920938073</v>
+        <v>1.029586920938584</v>
       </c>
       <c r="D2">
-        <v>0.2044739343541124</v>
+        <v>0.204473934354084</v>
       </c>
       <c r="E2">
-        <v>0.03584219218924645</v>
+        <v>0.03584219218927132</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.724620564670573</v>
+        <v>2.724620564670587</v>
       </c>
       <c r="H2">
-        <v>1.896432796463884</v>
+        <v>1.896432796463898</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1775596569958751</v>
+        <v>0.1775596569958928</v>
       </c>
       <c r="L2">
         <v>0.7231460335854933</v>
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.259791557439883</v>
+        <v>2.259791557440053</v>
       </c>
       <c r="C3">
-        <v>0.8828869071051884</v>
+        <v>0.8828869071056715</v>
       </c>
       <c r="D3">
-        <v>0.175838455635656</v>
+        <v>0.1758384556354429</v>
       </c>
       <c r="E3">
-        <v>0.0331609436236473</v>
+        <v>0.03316094362367572</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.418263813261476</v>
+        <v>2.418263813261504</v>
       </c>
       <c r="H3">
-        <v>1.70549226194025</v>
+        <v>1.705492261940265</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1540371178485316</v>
+        <v>0.1540371178485174</v>
       </c>
       <c r="L3">
-        <v>0.6223932392740252</v>
+        <v>0.6223932392740323</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.036909542235207</v>
+        <v>2.036909542235037</v>
       </c>
       <c r="C4">
-        <v>0.7947166177696374</v>
+        <v>0.7947166177698932</v>
       </c>
       <c r="D4">
         <v>0.1586555061710584</v>
       </c>
       <c r="E4">
-        <v>0.03157706912168123</v>
+        <v>0.03157706912168301</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.23620860620251</v>
+        <v>2.236208606202496</v>
       </c>
       <c r="H4">
-        <v>1.59232390525186</v>
+        <v>1.592323905251902</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1399637028262006</v>
+        <v>0.1399637028262113</v>
       </c>
       <c r="L4">
         <v>0.5618689053165298</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.947006891812379</v>
+        <v>1.947006891812492</v>
       </c>
       <c r="C5">
-        <v>0.7591882729659574</v>
+        <v>0.7591882729659858</v>
       </c>
       <c r="D5">
-        <v>0.1517389876458282</v>
+        <v>0.1517389876459276</v>
       </c>
       <c r="E5">
-        <v>0.03094564425618174</v>
+        <v>0.03094564425620128</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>2.163348558492814</v>
       </c>
       <c r="H5">
-        <v>1.547105021905153</v>
+        <v>1.547105021905168</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1343090377379532</v>
+        <v>0.1343090377379852</v>
       </c>
       <c r="L5">
         <v>0.5374922571306726</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.932129772550837</v>
+        <v>1.932129772550979</v>
       </c>
       <c r="C6">
-        <v>0.7533109852628854</v>
+        <v>0.7533109852631696</v>
       </c>
       <c r="D6">
-        <v>0.1505952765256069</v>
+        <v>0.1505952765258343</v>
       </c>
       <c r="E6">
-        <v>0.03084159711574763</v>
+        <v>0.0308415971157423</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.151325212905903</v>
+        <v>2.151325212905874</v>
       </c>
       <c r="H6">
-        <v>1.539647279010353</v>
+        <v>1.539647279010339</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1333745956162495</v>
+        <v>0.1333745956162531</v>
       </c>
       <c r="L6">
         <v>0.5334605599776197</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.035693555879959</v>
+        <v>2.035693555879845</v>
       </c>
       <c r="C7">
-        <v>0.7942359392682476</v>
+        <v>0.7942359392679919</v>
       </c>
       <c r="D7">
-        <v>0.1585618991017128</v>
+        <v>0.1585618991015991</v>
       </c>
       <c r="E7">
-        <v>0.03156849885582069</v>
+        <v>0.03156849885585444</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>2.235220849300077</v>
       </c>
       <c r="H7">
-        <v>1.591710587546601</v>
+        <v>1.591710587546615</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1398871323116566</v>
+        <v>0.1398871323116886</v>
       </c>
       <c r="L7">
-        <v>0.5615390503322004</v>
+        <v>0.5615390503321933</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,13 +643,13 @@
         <v>2.501257371108636</v>
       </c>
       <c r="C8">
-        <v>0.978560478013776</v>
+        <v>0.9785604780140034</v>
       </c>
       <c r="D8">
-        <v>0.1945081629662582</v>
+        <v>0.1945081629661161</v>
       </c>
       <c r="E8">
-        <v>0.03490367785549253</v>
+        <v>0.03490367785545345</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1693644173508417</v>
+        <v>0.1693644173508737</v>
       </c>
       <c r="L8">
-        <v>0.6880975354264649</v>
+        <v>0.688097535426472</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.457507620131025</v>
+        <v>3.457507620130912</v>
       </c>
       <c r="C9">
-        <v>1.359114220597348</v>
+        <v>1.359114220597178</v>
       </c>
       <c r="D9">
-        <v>0.268925871545207</v>
+        <v>0.2689258715453349</v>
       </c>
       <c r="E9">
-        <v>0.0420248766476945</v>
+        <v>0.04202487664765364</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.425342224904909</v>
+        <v>3.425342224904881</v>
       </c>
       <c r="H9">
         <v>2.335031917412991</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2307460502198992</v>
+        <v>0.2307460502199135</v>
       </c>
       <c r="L9">
         <v>0.9494221823385516</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.200736773317828</v>
+        <v>4.200736773317772</v>
       </c>
       <c r="C10">
-        <v>1.656855662051669</v>
+        <v>1.656855662051726</v>
       </c>
       <c r="D10">
-        <v>0.3272248510272249</v>
+        <v>0.3272248510274238</v>
       </c>
       <c r="E10">
-        <v>0.04774842116331257</v>
+        <v>0.0477484211632877</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>4.070045093627328</v>
       </c>
       <c r="H10">
-        <v>2.740317788167175</v>
+        <v>2.740317788167147</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2790676581134619</v>
+        <v>0.279067658113469</v>
       </c>
       <c r="L10">
         <v>1.15353122661304</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.551587951440013</v>
+        <v>4.551587951440126</v>
       </c>
       <c r="C11">
-        <v>1.798035454708554</v>
+        <v>1.798035454708725</v>
       </c>
       <c r="D11">
-        <v>0.3548684790748382</v>
+        <v>0.3548684790748666</v>
       </c>
       <c r="E11">
-        <v>0.05049590452955499</v>
+        <v>0.05049590452957275</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.378821093253151</v>
+        <v>4.378821093253094</v>
       </c>
       <c r="H11">
-        <v>2.934901214005947</v>
+        <v>2.934901214005933</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3020342251811954</v>
+        <v>0.3020342251812096</v>
       </c>
       <c r="L11">
-        <v>1.250134038513323</v>
+        <v>1.250134038513281</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.686677175482373</v>
+        <v>4.68667717548243</v>
       </c>
       <c r="C12">
-        <v>1.852504300414978</v>
+        <v>1.852504300414921</v>
       </c>
       <c r="D12">
         <v>0.3655318846767841</v>
       </c>
       <c r="E12">
-        <v>0.05156069552110054</v>
+        <v>0.05156069552113252</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>4.498417111999032</v>
       </c>
       <c r="H12">
-        <v>3.010340787948678</v>
+        <v>3.01034078794865</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3109014048419851</v>
+        <v>0.3109014048419354</v>
       </c>
       <c r="L12">
         <v>1.28736809601368</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.65747705048534</v>
+        <v>4.657477050485284</v>
       </c>
       <c r="C13">
-        <v>1.840725394037236</v>
+        <v>1.840725394037065</v>
       </c>
       <c r="D13">
-        <v>0.363226035225992</v>
+        <v>0.3632260352258214</v>
       </c>
       <c r="E13">
-        <v>0.05133022372028151</v>
+        <v>0.05133022372024243</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>4.472533370383871</v>
       </c>
       <c r="H13">
-        <v>2.994010358731416</v>
+        <v>2.994010358731401</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3089836163748814</v>
+        <v>0.3089836163748174</v>
       </c>
       <c r="L13">
-        <v>1.279318025781407</v>
+        <v>1.279318025781379</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.562654614846736</v>
+        <v>4.562654614846622</v>
       </c>
       <c r="C14">
-        <v>1.802495288445471</v>
+        <v>1.802495288445186</v>
       </c>
       <c r="D14">
-        <v>0.3557416326626566</v>
+        <v>0.355741632662685</v>
       </c>
       <c r="E14">
-        <v>0.05058299348612749</v>
+        <v>0.05058299348611683</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>4.388604023540267</v>
       </c>
       <c r="H14">
-        <v>2.941070677261976</v>
+        <v>2.941070677262019</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -909,13 +909,13 @@
         <v>4.504876456260206</v>
       </c>
       <c r="C15">
-        <v>1.77921539395129</v>
+        <v>1.779215393951858</v>
       </c>
       <c r="D15">
-        <v>0.3511837708722965</v>
+        <v>0.3511837708725096</v>
       </c>
       <c r="E15">
-        <v>0.0501285887552676</v>
+        <v>0.05012858875522852</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>4.337556927612269</v>
       </c>
       <c r="H15">
-        <v>2.908881513753215</v>
+        <v>2.908881513753172</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.178096672173808</v>
+        <v>4.178096672173922</v>
       </c>
       <c r="C16">
-        <v>1.647759484497499</v>
+        <v>1.647759484498351</v>
       </c>
       <c r="D16">
-        <v>0.3254436352730607</v>
+        <v>0.325443635273416</v>
       </c>
       <c r="E16">
-        <v>0.04757206278041082</v>
+        <v>0.04757206278040549</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>4.050213626312626</v>
       </c>
       <c r="H16">
-        <v>2.72783019968827</v>
+        <v>2.727830199688242</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2775888904437807</v>
+        <v>0.2775888904438233</v>
       </c>
       <c r="L16">
         <v>1.147302731598899</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.981154156743287</v>
+        <v>3.98115415674306</v>
       </c>
       <c r="C17">
-        <v>1.568704210950671</v>
+        <v>1.568704210950955</v>
       </c>
       <c r="D17">
-        <v>0.3099628344790375</v>
+        <v>0.3099628344789949</v>
       </c>
       <c r="E17">
-        <v>0.04604299423459679</v>
+        <v>0.04604299423466607</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.8781970059527</v>
+        <v>3.878197005952785</v>
       </c>
       <c r="H17">
-        <v>2.61956599985588</v>
+        <v>2.619565999855908</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2647426285104473</v>
+        <v>0.2647426285104402</v>
       </c>
       <c r="L17">
-        <v>1.093149864680981</v>
+        <v>1.093149864680996</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.869050939786916</v>
+        <v>3.869050939786632</v>
       </c>
       <c r="C18">
         <v>1.523760912785065</v>
       </c>
       <c r="D18">
-        <v>0.3011620597057174</v>
+        <v>0.3011620597055753</v>
       </c>
       <c r="E18">
-        <v>0.04517679670539998</v>
+        <v>0.04517679670537866</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.780685795125322</v>
+        <v>3.780685795125294</v>
       </c>
       <c r="H18">
-        <v>2.558237188429999</v>
+        <v>2.55823718842997</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.257444517329489</v>
+        <v>0.2574445173294251</v>
       </c>
       <c r="L18">
-        <v>1.062347955923343</v>
+        <v>1.062347955923329</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,13 +1061,13 @@
         <v>3.83128522591835</v>
       </c>
       <c r="C19">
-        <v>1.50862940326914</v>
+        <v>1.508629403268912</v>
       </c>
       <c r="D19">
-        <v>0.2981990855989238</v>
+        <v>0.298199085598938</v>
       </c>
       <c r="E19">
-        <v>0.04488569546268018</v>
+        <v>0.04488569546270682</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2549882902741984</v>
+        <v>0.2549882902741345</v>
       </c>
       <c r="L19">
-        <v>1.051975151039734</v>
+        <v>1.05197515103972</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.001994988405954</v>
+        <v>4.001994988405784</v>
       </c>
       <c r="C20">
-        <v>1.577064000347661</v>
+        <v>1.577064000347207</v>
       </c>
       <c r="D20">
-        <v>0.3115998670336779</v>
+        <v>0.3115998670340616</v>
       </c>
       <c r="E20">
-        <v>0.04620436669056538</v>
+        <v>0.04620436669057071</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.896357708486676</v>
+        <v>3.896357708486647</v>
       </c>
       <c r="H20">
-        <v>2.630991513952026</v>
+        <v>2.630991513951983</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2661005543697712</v>
+        <v>0.2661005543697925</v>
       </c>
       <c r="L20">
-        <v>1.098878027505769</v>
+        <v>1.098878027505776</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,10 +1137,10 @@
         <v>4.590442239560616</v>
       </c>
       <c r="C21">
-        <v>1.813695440415529</v>
+        <v>1.813695440415813</v>
       </c>
       <c r="D21">
-        <v>0.357934380642817</v>
+        <v>0.3579343806428454</v>
       </c>
       <c r="E21">
         <v>0.05080177884866899</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.413179753341893</v>
+        <v>4.413179753341865</v>
       </c>
       <c r="H21">
         <v>2.956570177702432</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3045832514465445</v>
+        <v>0.3045832514465801</v>
       </c>
       <c r="L21">
-        <v>1.260841131145114</v>
+        <v>1.260841131145099</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.988261271315821</v>
+        <v>4.988261271315992</v>
       </c>
       <c r="C22">
-        <v>1.97432906144661</v>
+        <v>1.974329061446326</v>
       </c>
       <c r="D22">
-        <v>0.3893758203709581</v>
+        <v>0.3893758203709154</v>
       </c>
       <c r="E22">
-        <v>0.05395075536755201</v>
+        <v>0.05395075536759464</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.766777417349857</v>
+        <v>4.766777417349829</v>
       </c>
       <c r="H22">
-        <v>3.179756877342669</v>
+        <v>3.179756877342683</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0.3307434310667148</v>
       </c>
       <c r="L22">
-        <v>1.370565893459812</v>
+        <v>1.370565893459798</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.774576181963937</v>
+        <v>4.774576181963766</v>
       </c>
       <c r="C23">
-        <v>1.887978962229965</v>
+        <v>1.88797896223025</v>
       </c>
       <c r="D23">
-        <v>0.372476006098168</v>
+        <v>0.3724760060981396</v>
       </c>
       <c r="E23">
-        <v>0.05225548813193726</v>
+        <v>0.05225548813201897</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.576440216126258</v>
+        <v>4.576440216126315</v>
       </c>
       <c r="H23">
-        <v>3.059577543635143</v>
+        <v>3.059577543635172</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.316678020587311</v>
+        <v>0.3166780205873465</v>
       </c>
       <c r="L23">
-        <v>1.311606421019093</v>
+        <v>1.311606421019135</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.992569383566149</v>
+        <v>3.992569383566206</v>
       </c>
       <c r="C24">
-        <v>1.573282974794097</v>
+        <v>1.573282974794438</v>
       </c>
       <c r="D24">
-        <v>0.3108594576491868</v>
+        <v>0.3108594576488173</v>
       </c>
       <c r="E24">
-        <v>0.04613137034115233</v>
+        <v>0.04613137034113635</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>3.888142977975519</v>
       </c>
       <c r="H24">
-        <v>2.625823213894975</v>
+        <v>2.625823213894947</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2654863660204825</v>
+        <v>0.2654863660205322</v>
       </c>
       <c r="L24">
         <v>1.096287301429356</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.192836610166466</v>
+        <v>3.19283661016658</v>
       </c>
       <c r="C25">
-        <v>1.253508145539115</v>
+        <v>1.253508145538888</v>
       </c>
       <c r="D25">
-        <v>0.2482573434868129</v>
+        <v>0.2482573434870403</v>
       </c>
       <c r="E25">
-        <v>0.04002316759072322</v>
+        <v>0.04002316759070013</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.199125392260072</v>
+        <v>3.199125392260086</v>
       </c>
       <c r="H25">
-        <v>2.193191746591921</v>
+        <v>2.193191746591907</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2136591296254622</v>
+        <v>0.2136591296254693</v>
       </c>
       <c r="L25">
-        <v>0.8769328617996877</v>
+        <v>0.8769328617997019</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.629871809244264</v>
+        <v>2.629680016711688</v>
       </c>
       <c r="C2">
-        <v>1.029586920938584</v>
+        <v>1.028489665923132</v>
       </c>
       <c r="D2">
-        <v>0.204473934354084</v>
+        <v>0.2044641773867966</v>
       </c>
       <c r="E2">
-        <v>0.03584219218927132</v>
+        <v>0.03586381290359419</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.724620564670587</v>
+        <v>0.8813693434507428</v>
       </c>
       <c r="H2">
-        <v>1.896432796463898</v>
+        <v>1.83848592532992</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.89099723617089</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1775596569958928</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.7231460335854933</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1774966010118497</v>
+      </c>
+      <c r="M2">
+        <v>0.7230268120728098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.259791557440053</v>
+        <v>2.259688802929816</v>
       </c>
       <c r="C3">
-        <v>0.8828869071056715</v>
+        <v>0.8819623596549775</v>
       </c>
       <c r="D3">
-        <v>0.1758384556354429</v>
+        <v>0.1758326609609782</v>
       </c>
       <c r="E3">
-        <v>0.03316094362367572</v>
+        <v>0.03318183175765732</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.418263813261504</v>
+        <v>0.7762099504001725</v>
       </c>
       <c r="H3">
-        <v>1.705492261940265</v>
+        <v>1.638472061301101</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.700714508711144</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1540371178485174</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6223932392740323</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1539837702528146</v>
+      </c>
+      <c r="M3">
+        <v>0.6223012655791891</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.036909542235037</v>
+        <v>2.036850917845754</v>
       </c>
       <c r="C4">
-        <v>0.7947166177698932</v>
+        <v>0.7938926681799217</v>
       </c>
       <c r="D4">
-        <v>0.1586555061710584</v>
+        <v>0.1586516777586553</v>
       </c>
       <c r="E4">
-        <v>0.03157706912168301</v>
+        <v>0.03159761962466767</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.236208606202496</v>
+        <v>0.7136229707919739</v>
       </c>
       <c r="H4">
-        <v>1.592323905251902</v>
+        <v>1.519712743999762</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.587941145553032</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1399637028262113</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5618689053165298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1399159252945665</v>
+      </c>
+      <c r="M4">
+        <v>0.5617912445296227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.947006891812492</v>
+        <v>1.946963983865942</v>
       </c>
       <c r="C5">
-        <v>0.7591882729659858</v>
+        <v>0.7584041677179414</v>
       </c>
       <c r="D5">
-        <v>0.1517389876459276</v>
+        <v>0.1517358642790327</v>
       </c>
       <c r="E5">
-        <v>0.03094564425620128</v>
+        <v>0.03096608480469776</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.163348558492814</v>
+        <v>0.6885516094223902</v>
       </c>
       <c r="H5">
-        <v>1.547105021905168</v>
+        <v>1.472209247878553</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.542881399741034</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1343090377379852</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5374922571306726</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1342634498192083</v>
+      </c>
+      <c r="M5">
+        <v>0.5374199132122115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.932129772550979</v>
+        <v>1.932089347596104</v>
       </c>
       <c r="C6">
-        <v>0.7533109852631696</v>
+        <v>0.7525334325321467</v>
       </c>
       <c r="D6">
-        <v>0.1505952765258343</v>
+        <v>0.1505922649740228</v>
       </c>
       <c r="E6">
-        <v>0.0308415971157423</v>
+        <v>0.03086202105696678</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.151325212905874</v>
+        <v>0.684412927728701</v>
       </c>
       <c r="H6">
-        <v>1.539647279010339</v>
+        <v>1.464371737113453</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.535449982375752</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1333745956162531</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5334605599776197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1333293669114077</v>
+      </c>
+      <c r="M6">
+        <v>0.5333890702143691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.035693555879845</v>
+        <v>2.035635152158818</v>
       </c>
       <c r="C7">
-        <v>0.7942359392679919</v>
+        <v>0.7934125314213816</v>
       </c>
       <c r="D7">
-        <v>0.1585618991015991</v>
+        <v>0.1585580805622726</v>
       </c>
       <c r="E7">
-        <v>0.03156849885585444</v>
+        <v>0.03158904776485727</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.235220849300077</v>
+        <v>0.7132831760809779</v>
       </c>
       <c r="H7">
-        <v>1.591710587546615</v>
+        <v>1.519068641999681</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.587329980914603</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1398871323116886</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5615390503321933</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1398393846129053</v>
+      </c>
+      <c r="M7">
+        <v>0.5614614632265855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.501257371108636</v>
+        <v>2.501098714901275</v>
       </c>
       <c r="C8">
-        <v>0.9785604780140034</v>
+        <v>0.9775240444200222</v>
       </c>
       <c r="D8">
-        <v>0.1945081629661161</v>
+        <v>0.1944998828661255</v>
       </c>
       <c r="E8">
-        <v>0.03490367785545345</v>
+        <v>0.03492502237796558</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.617611207812018</v>
+        <v>0.844657955244088</v>
       </c>
       <c r="H8">
-        <v>1.829672259016021</v>
+        <v>1.768600205586807</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.824465624019766</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1693644173508737</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.688097535426472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.16930480176174</v>
+      </c>
+      <c r="M8">
+        <v>0.6879882705647233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.457507620130912</v>
+        <v>3.457047996250594</v>
       </c>
       <c r="C9">
-        <v>1.359114220597178</v>
+        <v>1.357605059112075</v>
       </c>
       <c r="D9">
-        <v>0.2689258715453349</v>
+        <v>0.268903967594099</v>
       </c>
       <c r="E9">
-        <v>0.04202487664765364</v>
+        <v>0.04204869046307103</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.425342224904881</v>
+        <v>1.121335480998511</v>
       </c>
       <c r="H9">
-        <v>2.335031917412991</v>
+        <v>2.29656200578637</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.328112887731407</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2307460502199135</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.9494221823385516</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.2306590620664011</v>
+      </c>
+      <c r="M9">
+        <v>0.9492265965662412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.200736773317772</v>
+        <v>4.199956454841185</v>
       </c>
       <c r="C10">
-        <v>1.656855662051726</v>
+        <v>1.654945437550907</v>
       </c>
       <c r="D10">
-        <v>0.3272248510274238</v>
+        <v>0.3271878739472811</v>
       </c>
       <c r="E10">
-        <v>0.0477484211632877</v>
+        <v>0.04777461201062749</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.070045093627328</v>
+        <v>1.341620981646344</v>
       </c>
       <c r="H10">
-        <v>2.740317788167147</v>
+        <v>2.718529040143466</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.732047216892425</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.279067658113469</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.15353122661304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.2789562915767831</v>
+      </c>
+      <c r="M10">
+        <v>1.153248699091328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.551587951440126</v>
+        <v>4.550629361242102</v>
       </c>
       <c r="C11">
-        <v>1.798035454708725</v>
+        <v>1.795925124405699</v>
       </c>
       <c r="D11">
-        <v>0.3548684790748666</v>
+        <v>0.3548228967310507</v>
       </c>
       <c r="E11">
-        <v>0.05049590452957275</v>
+        <v>0.05052329246912279</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.378821093253094</v>
+        <v>1.446996993071139</v>
       </c>
       <c r="H11">
-        <v>2.934901214005933</v>
+        <v>2.920755933272034</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.925984808559178</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3020342251812096</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.250134038513281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.3019102978982531</v>
+      </c>
+      <c r="M11">
+        <v>1.249804201584709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.68667717548243</v>
+        <v>4.685645232340505</v>
       </c>
       <c r="C12">
-        <v>1.852504300414921</v>
+        <v>1.850315001623301</v>
       </c>
       <c r="D12">
-        <v>0.3655318846767841</v>
+        <v>0.3654827186798002</v>
       </c>
       <c r="E12">
-        <v>0.05156069552113252</v>
+        <v>0.05158855190815714</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.498417111999032</v>
+        <v>1.487792292111862</v>
       </c>
       <c r="H12">
-        <v>3.01034078794865</v>
+        <v>2.999101952131781</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.001174216807598</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3109014048419354</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.28736809601368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.3107724482940739</v>
+      </c>
+      <c r="M12">
+        <v>1.287018933415794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.657477050485284</v>
+        <v>4.656461187393973</v>
       </c>
       <c r="C13">
-        <v>1.840725394037065</v>
+        <v>1.838553256674516</v>
       </c>
       <c r="D13">
-        <v>0.3632260352258214</v>
+        <v>0.3631776568829963</v>
       </c>
       <c r="E13">
-        <v>0.05133022372024243</v>
+        <v>0.0513579785812297</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.472533370383871</v>
+        <v>1.478963977257308</v>
       </c>
       <c r="H13">
-        <v>2.994010358731401</v>
+        <v>2.982144957280639</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.984897935470528</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3089836163748174</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.279318025781379</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.3088557562585876</v>
+      </c>
+      <c r="M13">
+        <v>1.278973093583005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.562654614846622</v>
+        <v>4.561690114896408</v>
       </c>
       <c r="C14">
-        <v>1.802495288445186</v>
+        <v>1.800378529663362</v>
       </c>
       <c r="D14">
-        <v>0.355741632662685</v>
+        <v>0.3556957624986694</v>
       </c>
       <c r="E14">
-        <v>0.05058299348611683</v>
+        <v>0.05061041967429958</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.388604023540267</v>
+        <v>1.450334428112313</v>
       </c>
       <c r="H14">
-        <v>2.941070677262019</v>
+        <v>2.927164243484128</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.932133810300812</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3027601392678818</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.253183505498484</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.3026358041020529</v>
+      </c>
+      <c r="M14">
+        <v>1.252852108871338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.504876456260206</v>
+        <v>4.503942616092104</v>
       </c>
       <c r="C15">
-        <v>1.779215393951858</v>
+        <v>1.777132118238171</v>
       </c>
       <c r="D15">
-        <v>0.3511837708725096</v>
+        <v>0.3511393921817358</v>
       </c>
       <c r="E15">
-        <v>0.05012858875522852</v>
+        <v>0.05015581553006143</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.337556927612269</v>
+        <v>1.432918996805626</v>
       </c>
       <c r="H15">
-        <v>2.908881513753172</v>
+        <v>2.893726593370388</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.900051412124071</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.29897118647024</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.237264057219761</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.2988489728125501</v>
+      </c>
+      <c r="M15">
+        <v>1.236940757759513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.178096672173922</v>
+        <v>4.177327257476406</v>
       </c>
       <c r="C16">
-        <v>1.647759484498351</v>
+        <v>1.645861929672151</v>
       </c>
       <c r="D16">
-        <v>0.325443635273416</v>
+        <v>0.3254071795355884</v>
       </c>
       <c r="E16">
-        <v>0.04757206278040549</v>
+        <v>0.04759817761774165</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.050213626312626</v>
+        <v>1.334850504047694</v>
       </c>
       <c r="H16">
-        <v>2.727830199688242</v>
+        <v>2.705543372124907</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.719601119199936</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2775888904438233</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.147302731598899</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.2774783103076501</v>
+      </c>
+      <c r="M16">
+        <v>1.147023116189004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.98115415674306</v>
+        <v>3.980476559476699</v>
       </c>
       <c r="C17">
-        <v>1.568704210950955</v>
+        <v>1.566915648818622</v>
       </c>
       <c r="D17">
-        <v>0.3099628344789949</v>
+        <v>0.3099307449547126</v>
       </c>
       <c r="E17">
-        <v>0.04604299423466607</v>
+        <v>0.04606845580737939</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.878197005952785</v>
+        <v>1.276109871850309</v>
       </c>
       <c r="H17">
-        <v>2.619565999855908</v>
+        <v>2.592920733576193</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.611696947371883</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2647426285104402</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.093149864680996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.2646387696824988</v>
+      </c>
+      <c r="M17">
+        <v>1.092894873299883</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.869050939786632</v>
+        <v>3.868423191065403</v>
       </c>
       <c r="C18">
-        <v>1.523760912785065</v>
+        <v>1.522033425115751</v>
       </c>
       <c r="D18">
-        <v>0.3011620597055753</v>
+        <v>0.3011323223374802</v>
       </c>
       <c r="E18">
-        <v>0.04517679670537866</v>
+        <v>0.0452018935725409</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.780685795125294</v>
+        <v>1.242799874532352</v>
       </c>
       <c r="H18">
-        <v>2.55823718842997</v>
+        <v>2.529089957364164</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.550572377067198</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2574445173294251</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1.062347955923329</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.2573443904498447</v>
+      </c>
+      <c r="M18">
+        <v>1.06210641870819</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.83128522591835</v>
+        <v>3.830673877876052</v>
       </c>
       <c r="C19">
-        <v>1.508629403268912</v>
+        <v>1.50692233439878</v>
       </c>
       <c r="D19">
-        <v>0.298199085598938</v>
+        <v>0.298170119225702</v>
       </c>
       <c r="E19">
-        <v>0.04488569546270682</v>
+        <v>0.04491067077255195</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.747903272210948</v>
+        <v>1.231599330704427</v>
       </c>
       <c r="H19">
-        <v>2.537626161998617</v>
+        <v>2.50763253885259</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.530030046649699</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2549882902741345</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.05197515103972</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.2548894055728397</v>
+      </c>
+      <c r="M19">
+        <v>1.051738055232796</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.001994988405784</v>
+        <v>4.001307931302961</v>
       </c>
       <c r="C20">
-        <v>1.577064000347207</v>
+        <v>1.575264007171825</v>
       </c>
       <c r="D20">
-        <v>0.3115998670340616</v>
+        <v>0.3115673296641717</v>
       </c>
       <c r="E20">
-        <v>0.04620436669057071</v>
+        <v>0.04622989667017663</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.896357708486647</v>
+        <v>1.282312647684506</v>
       </c>
       <c r="H20">
-        <v>2.630991513951983</v>
+        <v>2.604809677623194</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.623084437016232</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2661005543697925</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.098878027505776</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.2659959943056052</v>
+      </c>
+      <c r="M20">
+        <v>1.098620490127693</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.590442239560616</v>
+        <v>4.589462822631731</v>
       </c>
       <c r="C21">
-        <v>1.813695440415813</v>
+        <v>1.811562508263705</v>
       </c>
       <c r="D21">
-        <v>0.3579343806428454</v>
+        <v>0.3578877832751175</v>
       </c>
       <c r="E21">
-        <v>0.05080177884866899</v>
+        <v>0.05082930118252449</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.413179753341865</v>
+        <v>1.458718101218523</v>
       </c>
       <c r="H21">
-        <v>2.956570177702432</v>
+        <v>2.943262880640503</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.947581908068699</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3045832514465801</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.260841131145099</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.3044578888923155</v>
+      </c>
+      <c r="M21">
+        <v>1.260505799811142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.988261271315992</v>
+        <v>4.987055919611521</v>
       </c>
       <c r="C22">
-        <v>1.974329061446326</v>
+        <v>1.971959494636963</v>
       </c>
       <c r="D22">
-        <v>0.3893758203709154</v>
+        <v>0.3893180891544006</v>
       </c>
       <c r="E22">
-        <v>0.05395075536759464</v>
+        <v>0.05397966647953112</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.766777417349829</v>
+        <v>1.579296477101053</v>
       </c>
       <c r="H22">
-        <v>3.179756877342683</v>
+        <v>3.174936597956076</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.170028594509574</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3307434310667148</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.370565893459798</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.3306028412549722</v>
+      </c>
+      <c r="M22">
+        <v>1.370171299479566</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.774576181963766</v>
+        <v>4.773495082411614</v>
       </c>
       <c r="C23">
-        <v>1.88797896223025</v>
+        <v>1.885737694546037</v>
       </c>
       <c r="D23">
-        <v>0.3724760060981396</v>
+        <v>0.3724244251976643</v>
       </c>
       <c r="E23">
-        <v>0.05225548813201897</v>
+        <v>0.05228365089645948</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.576440216126315</v>
+        <v>1.514401244765537</v>
       </c>
       <c r="H23">
-        <v>3.059577543635172</v>
+        <v>3.050219307248341</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.050247725670872</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3166780205873465</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.311606421019135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.316545732044986</v>
+      </c>
+      <c r="M23">
+        <v>1.311244345911547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.992569383566206</v>
+        <v>3.991886612322389</v>
       </c>
       <c r="C24">
-        <v>1.573282974794438</v>
+        <v>1.571488154488463</v>
       </c>
       <c r="D24">
-        <v>0.3108594576488173</v>
+        <v>0.3108271232375159</v>
       </c>
       <c r="E24">
-        <v>0.04613137034113635</v>
+        <v>0.04615686936012331</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.888142977975519</v>
+        <v>1.279506948368606</v>
       </c>
       <c r="H24">
-        <v>2.625823213894947</v>
+        <v>2.599431849472808</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.61793333627466</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2654863660205322</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.096287301429356</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.2653821233926479</v>
+      </c>
+      <c r="M24">
+        <v>1.096030917263384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.19283661016658</v>
+        <v>3.192472843624728</v>
       </c>
       <c r="C25">
-        <v>1.253508145538888</v>
+        <v>1.25213460287415</v>
       </c>
       <c r="D25">
-        <v>0.2482573434870403</v>
+        <v>0.2482398339672613</v>
       </c>
       <c r="E25">
-        <v>0.04002316759070013</v>
+        <v>0.04004621406922126</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.199125392260086</v>
+        <v>1.043937739711154</v>
       </c>
       <c r="H25">
-        <v>2.193191746591907</v>
+        <v>2.148605044166104</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.186749287793262</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2136591296254693</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8769328617997019</v>
+        <v>0.2135801440459133</v>
+      </c>
+      <c r="M25">
+        <v>0.8767640117491808</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.629680016711688</v>
+        <v>3.872531794569795</v>
       </c>
       <c r="C2">
-        <v>1.028489665923132</v>
+        <v>1.036260096702222</v>
       </c>
       <c r="D2">
-        <v>0.2044641773867966</v>
+        <v>0.5543095126114963</v>
       </c>
       <c r="E2">
-        <v>0.03586381290359419</v>
+        <v>0.2475703964442459</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.8813693434507428</v>
+        <v>0.0008100425618351335</v>
       </c>
       <c r="H2">
-        <v>1.83848592532992</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.89099723617089</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1467376052619827</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.113450967860828</v>
       </c>
       <c r="L2">
-        <v>0.1774966010118497</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7230268120728098</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1.656583813552786</v>
+      </c>
+      <c r="O2">
+        <v>2.599198065246327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.259688802929816</v>
+        <v>3.365046254162735</v>
       </c>
       <c r="C3">
-        <v>0.8819623596549775</v>
+        <v>0.8962508898641204</v>
       </c>
       <c r="D3">
-        <v>0.1758326609609782</v>
+        <v>0.4979593008835366</v>
       </c>
       <c r="E3">
-        <v>0.03318183175765732</v>
+        <v>0.2209844674393935</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7762099504001725</v>
+        <v>0.0008211591960024402</v>
       </c>
       <c r="H3">
-        <v>1.638472061301101</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.700714508711144</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1299095026888466</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.96628823736431</v>
       </c>
       <c r="L3">
-        <v>0.1539837702528146</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6223012655791891</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1.659252237907168</v>
+      </c>
+      <c r="O3">
+        <v>2.3738956401927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.036850917845754</v>
+        <v>3.061515773267672</v>
       </c>
       <c r="C4">
-        <v>0.7938926681799217</v>
+        <v>0.8125869507288144</v>
       </c>
       <c r="D4">
-        <v>0.1586516777586553</v>
+        <v>0.4646211972334982</v>
       </c>
       <c r="E4">
-        <v>0.03159761962466767</v>
+        <v>0.2052419664628857</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7136229707919739</v>
+        <v>0.0008281268870713829</v>
       </c>
       <c r="H4">
-        <v>1.519712743999762</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.587941145553032</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1199349563182466</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.878289710965376</v>
       </c>
       <c r="L4">
-        <v>0.1399159252945665</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5617912445296227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1.663503589882211</v>
+      </c>
+      <c r="O4">
+        <v>2.241880387907457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.946963983865942</v>
+        <v>2.939579593945382</v>
       </c>
       <c r="C5">
-        <v>0.7584041677179414</v>
+        <v>0.778990784255285</v>
       </c>
       <c r="D5">
-        <v>0.1517358642790327</v>
+        <v>0.4513163526320341</v>
       </c>
       <c r="E5">
-        <v>0.03096608480469776</v>
+        <v>0.1989555822569145</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.6885516094223902</v>
+        <v>0.0008310052302957508</v>
       </c>
       <c r="H5">
-        <v>1.472209247878553</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.542881399741034</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1159490964539174</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.8429420588826844</v>
       </c>
       <c r="L5">
-        <v>0.1342634498192083</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5374199132122115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.66584039223217</v>
+      </c>
+      <c r="O5">
+        <v>2.189494988472518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.932089347596104</v>
+        <v>2.91943072416052</v>
       </c>
       <c r="C6">
-        <v>0.7525334325321467</v>
+        <v>0.77344000676527</v>
       </c>
       <c r="D6">
-        <v>0.1505922649740228</v>
+        <v>0.4491230558891175</v>
       </c>
       <c r="E6">
-        <v>0.03086202105696678</v>
+        <v>0.1979190402441091</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.684412927728701</v>
+        <v>0.0008314856180451705</v>
       </c>
       <c r="H6">
-        <v>1.464371737113453</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.535449982375752</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1152917061308685</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.8371013553799287</v>
       </c>
       <c r="L6">
-        <v>0.1333293669114077</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5333890702143691</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.666263483611687</v>
+      </c>
+      <c r="O6">
+        <v>2.180876870077526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.035635152158818</v>
+        <v>3.059864534252824</v>
       </c>
       <c r="C7">
-        <v>0.7934125314213816</v>
+        <v>0.8121319475389157</v>
       </c>
       <c r="D7">
-        <v>0.1585580805622726</v>
+        <v>0.4644406721901362</v>
       </c>
       <c r="E7">
-        <v>0.03158904776485727</v>
+        <v>0.2051566861330159</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.7132831760809779</v>
+        <v>0.0008281655436403167</v>
       </c>
       <c r="H7">
-        <v>1.519068641999681</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.587329980914603</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1198808962400193</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.8778110259687537</v>
       </c>
       <c r="L7">
-        <v>0.1398393846129053</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5614614632265855</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1.663532723370594</v>
+      </c>
+      <c r="O7">
+        <v>2.241168404463821</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.501098714901275</v>
+        <v>3.69570190441209</v>
       </c>
       <c r="C8">
-        <v>0.9775240444200222</v>
+        <v>0.9874551636634692</v>
       </c>
       <c r="D8">
-        <v>0.1944998828661255</v>
+        <v>0.5345949841087361</v>
       </c>
       <c r="E8">
-        <v>0.03492502237796558</v>
+        <v>0.2382718229649186</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.844657955244088</v>
+        <v>0.0008138481560136675</v>
       </c>
       <c r="H8">
-        <v>1.768600205586807</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.824465624019766</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1408538520155105</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.062167823918358</v>
       </c>
       <c r="L8">
-        <v>0.16930480176174</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6879882705647233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1.656927981469735</v>
+      </c>
+      <c r="O8">
+        <v>2.520088572581841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.457047996250594</v>
+        <v>5.020765394409295</v>
       </c>
       <c r="C9">
-        <v>1.357605059112075</v>
+        <v>1.35375966525686</v>
       </c>
       <c r="D9">
-        <v>0.268903967594099</v>
+        <v>0.6840625823819266</v>
       </c>
       <c r="E9">
-        <v>0.04204869046307103</v>
+        <v>0.3087250757315658</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.121335480998511</v>
+        <v>0.0007867321262567347</v>
       </c>
       <c r="H9">
-        <v>2.29656200578637</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2.328112887731407</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1854022632601726</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.446613731878685</v>
       </c>
       <c r="L9">
-        <v>0.2306590620664011</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9492265965662412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1.667435324971407</v>
+      </c>
+      <c r="O9">
+        <v>3.126405404666372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.199956454841185</v>
+        <v>6.065146358600146</v>
       </c>
       <c r="C10">
-        <v>1.654945437550907</v>
+        <v>1.64354891008702</v>
       </c>
       <c r="D10">
-        <v>0.3271878739472811</v>
+        <v>0.8042233502874581</v>
       </c>
       <c r="E10">
-        <v>0.04777461201062749</v>
+        <v>0.3653284221399744</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.341620981646344</v>
+        <v>0.0007671243304179206</v>
       </c>
       <c r="H10">
-        <v>2.718529040143466</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.732047216892425</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2211705172492344</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.749916406392614</v>
       </c>
       <c r="L10">
-        <v>0.2789562915767831</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.153248699091328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1.693922594558998</v>
+      </c>
+      <c r="O10">
+        <v>3.623107791222793</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.550629361242102</v>
+        <v>6.562043985707078</v>
       </c>
       <c r="C11">
-        <v>1.795925124405699</v>
+        <v>1.781798901202137</v>
       </c>
       <c r="D11">
-        <v>0.3548228967310507</v>
+        <v>0.861990543570812</v>
       </c>
       <c r="E11">
-        <v>0.05052329246912279</v>
+        <v>0.3925399473095581</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.446996993071139</v>
+        <v>0.000758198210069283</v>
       </c>
       <c r="H11">
-        <v>2.920755933272034</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.925984808559178</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2383669402574924</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.89432386577991</v>
       </c>
       <c r="L11">
-        <v>0.3019102978982531</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.249804201584709</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1.71128660013477</v>
+      </c>
+      <c r="O11">
+        <v>3.864359018056859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.685645232340505</v>
+        <v>6.753998316194156</v>
       </c>
       <c r="C12">
-        <v>1.850315001623301</v>
+        <v>1.835273692190356</v>
       </c>
       <c r="D12">
-        <v>0.3654827186798002</v>
+        <v>0.8844002333376864</v>
       </c>
       <c r="E12">
-        <v>0.05158855190815714</v>
+        <v>0.4030968259241234</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.487792292111862</v>
+        <v>0.000754809602784956</v>
       </c>
       <c r="H12">
-        <v>2.999101952131781</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>3.001174216807598</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.245039198456908</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.950127776171939</v>
       </c>
       <c r="L12">
-        <v>0.3107724482940739</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.287018933415794</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1.718754485860615</v>
+      </c>
+      <c r="O12">
+        <v>3.95834326016174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.656461187393973</v>
+        <v>6.712477169003876</v>
       </c>
       <c r="C13">
-        <v>1.838553256674516</v>
+        <v>1.823703423680399</v>
       </c>
       <c r="D13">
-        <v>0.3631776568829963</v>
+        <v>0.8795485478460137</v>
       </c>
       <c r="E13">
-        <v>0.0513579785812297</v>
+        <v>0.4008112238342889</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.478963977257308</v>
+        <v>0.0007555399128270551</v>
       </c>
       <c r="H13">
-        <v>2.982144957280639</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.984897935470528</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2435945838648905</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.938056085684352</v>
       </c>
       <c r="L13">
-        <v>0.3088557562585876</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.278973093583005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1.717104133971105</v>
+      </c>
+      <c r="O13">
+        <v>3.937977499034503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.561690114896408</v>
+        <v>6.57775602735046</v>
       </c>
       <c r="C14">
-        <v>1.800378529663362</v>
+        <v>1.786174528273932</v>
       </c>
       <c r="D14">
-        <v>0.3556957624986694</v>
+        <v>0.8638229250638005</v>
       </c>
       <c r="E14">
-        <v>0.05061041967429958</v>
+        <v>0.3934031372153086</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.450334428112313</v>
+        <v>0.0007579196457256571</v>
       </c>
       <c r="H14">
-        <v>2.927164243484128</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.932133810300812</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2389124817802042</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.898891191176119</v>
       </c>
       <c r="L14">
-        <v>0.3026358041020529</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.252852108871338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1.711882275834654</v>
+      </c>
+      <c r="O14">
+        <v>3.872035750255776</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.503942616092104</v>
+        <v>6.495750569208099</v>
       </c>
       <c r="C15">
-        <v>1.777132118238171</v>
+        <v>1.763339747875534</v>
       </c>
       <c r="D15">
-        <v>0.3511393921817358</v>
+        <v>0.8542630355845233</v>
       </c>
       <c r="E15">
-        <v>0.05015581553006143</v>
+        <v>0.3888997402518939</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.432918996805626</v>
+        <v>0.0007593759480199833</v>
       </c>
       <c r="H15">
-        <v>2.893726593370388</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.900051412124071</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2360663422483213</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.875053832569165</v>
       </c>
       <c r="L15">
-        <v>0.2988489728125501</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.236940757759513</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1.708804200971883</v>
+      </c>
+      <c r="O15">
+        <v>3.832000820237766</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.177327257476406</v>
+        <v>6.033164882667961</v>
       </c>
       <c r="C16">
-        <v>1.645861929672151</v>
+        <v>1.634659343544172</v>
       </c>
       <c r="D16">
-        <v>0.3254071795355884</v>
+        <v>0.8005177623164172</v>
       </c>
       <c r="E16">
-        <v>0.04759817761774165</v>
+        <v>0.3635829367247609</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.334850504047694</v>
+        <v>0.0007677069295328742</v>
       </c>
       <c r="H16">
-        <v>2.705543372124907</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.719601119199936</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.220067524670668</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.740624326404514</v>
       </c>
       <c r="L16">
-        <v>0.2774783103076501</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.147023116189004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1.692905177333628</v>
+      </c>
+      <c r="O16">
+        <v>3.607684054391257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.980476559476699</v>
+        <v>5.755396638890943</v>
       </c>
       <c r="C17">
-        <v>1.566915648818622</v>
+        <v>1.557493194705046</v>
       </c>
       <c r="D17">
-        <v>0.3099307449547126</v>
+        <v>0.7683996972871512</v>
       </c>
       <c r="E17">
-        <v>0.04606845580737939</v>
+        <v>0.3484540253041928</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.276109871850309</v>
+        <v>0.0007728111171019236</v>
       </c>
       <c r="H17">
-        <v>2.592920733576193</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2.611696947371883</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2105075837666988</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.659931451638101</v>
       </c>
       <c r="L17">
-        <v>0.2646387696824988</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.092894873299883</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1.684596738650882</v>
+      </c>
+      <c r="O17">
+        <v>3.474271242266184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.868423191065403</v>
+        <v>5.597638343763094</v>
       </c>
       <c r="C18">
-        <v>1.522033425115751</v>
+        <v>1.513699974700046</v>
       </c>
       <c r="D18">
-        <v>0.3011323223374802</v>
+        <v>0.7502124025119485</v>
       </c>
       <c r="E18">
-        <v>0.0452018935725409</v>
+        <v>0.3398869776783044</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.242799874532352</v>
+        <v>0.0007757468302449046</v>
       </c>
       <c r="H18">
-        <v>2.529089957364164</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2.550572377067198</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2050941416593872</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.614111021160639</v>
       </c>
       <c r="L18">
-        <v>0.2573443904498447</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.06210641870819</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1.68030924614834</v>
+      </c>
+      <c r="O18">
+        <v>3.39894590092598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.830673877876052</v>
+        <v>5.54455072497683</v>
       </c>
       <c r="C19">
-        <v>1.50692233439878</v>
+        <v>1.498968340717568</v>
       </c>
       <c r="D19">
-        <v>0.298170119225702</v>
+        <v>0.7441012290580602</v>
       </c>
       <c r="E19">
-        <v>0.04491067077255195</v>
+        <v>0.3370082993061629</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.231599330704427</v>
+        <v>0.0007767410066515848</v>
       </c>
       <c r="H19">
-        <v>2.50763253885259</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2.530030046649699</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2032751244622375</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.598693326705643</v>
       </c>
       <c r="L19">
-        <v>0.2548894055728397</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.051738055232796</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1.678938434302921</v>
+      </c>
+      <c r="O19">
+        <v>3.373672475610491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.001307931302961</v>
+        <v>5.784753504893956</v>
       </c>
       <c r="C20">
-        <v>1.575264007171825</v>
+        <v>1.56564520667439</v>
       </c>
       <c r="D20">
-        <v>0.3115673296641717</v>
+        <v>0.7717885182338193</v>
       </c>
       <c r="E20">
-        <v>0.04622989667017663</v>
+        <v>0.3500503023462045</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.282312647684506</v>
+        <v>0.0007722678263105251</v>
       </c>
       <c r="H20">
-        <v>2.604809677623194</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.623084437016232</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2115162584529173</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.668458782932206</v>
       </c>
       <c r="L20">
-        <v>0.2659959943056052</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.098620490127693</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1.685429486199112</v>
+      </c>
+      <c r="O20">
+        <v>3.488324471458753</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.589462822631731</v>
+        <v>6.617218188554659</v>
       </c>
       <c r="C21">
-        <v>1.811562508263705</v>
+        <v>1.797165429450729</v>
       </c>
       <c r="D21">
-        <v>0.3578877832751175</v>
+        <v>0.8684266292002008</v>
       </c>
       <c r="E21">
-        <v>0.05082930118252449</v>
+        <v>0.3955718427467971</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.458718101218523</v>
+        <v>0.0007572209579863687</v>
       </c>
       <c r="H21">
-        <v>2.943262880640503</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.947581908068699</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2402831325293704</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.910362734723307</v>
       </c>
       <c r="L21">
-        <v>0.3044578888923155</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.260505799811142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1.713390692200448</v>
+      </c>
+      <c r="O21">
+        <v>3.891329305145007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.987055919611521</v>
+        <v>7.18377404381306</v>
       </c>
       <c r="C22">
-        <v>1.971959494636963</v>
+        <v>1.955142840839244</v>
       </c>
       <c r="D22">
-        <v>0.3893180891544006</v>
+        <v>0.934754777325935</v>
       </c>
       <c r="E22">
-        <v>0.05397966647953112</v>
+        <v>0.4268203188783346</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.579296477101053</v>
+        <v>0.0007473329178377333</v>
       </c>
       <c r="H22">
-        <v>3.174936597956076</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3.170028594509574</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.260035406650772</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.07510839793828</v>
       </c>
       <c r="L22">
-        <v>0.3306028412549722</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.370171299479566</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1.736946180801596</v>
+      </c>
+      <c r="O22">
+        <v>4.17029478625048</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.773495082411614</v>
+        <v>6.879083642283774</v>
       </c>
       <c r="C23">
-        <v>1.885737694546037</v>
+        <v>1.870140945653645</v>
       </c>
       <c r="D23">
-        <v>0.3724244251976643</v>
+        <v>0.8990304301823926</v>
       </c>
       <c r="E23">
-        <v>0.05228365089645948</v>
+        <v>0.4099891938006834</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.514401244765537</v>
+        <v>0.0007526181860479043</v>
       </c>
       <c r="H23">
-        <v>3.050219307248341</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3.050247725670872</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2493956888244924</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.986497574603831</v>
       </c>
       <c r="L23">
-        <v>0.316545732044986</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.311244345911547</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1.723841662627564</v>
+      </c>
+      <c r="O23">
+        <v>4.019816141037808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.991886612322389</v>
+        <v>5.771475288321824</v>
       </c>
       <c r="C24">
-        <v>1.571488154488463</v>
+        <v>1.561957919131601</v>
       </c>
       <c r="D24">
-        <v>0.3108271232375159</v>
+        <v>0.7702555733598899</v>
       </c>
       <c r="E24">
-        <v>0.04615686936012331</v>
+        <v>0.3493282212527404</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.279506948368606</v>
+        <v>0.0007725134435943974</v>
       </c>
       <c r="H24">
-        <v>2.599431849472808</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2.61793333627466</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2110599810292939</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.664601812160384</v>
       </c>
       <c r="L24">
-        <v>0.2653821233926479</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.096030917263384</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1.685051486861184</v>
+      </c>
+      <c r="O24">
+        <v>3.48196675345983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.192472843624728</v>
+        <v>4.651751520805192</v>
       </c>
       <c r="C25">
-        <v>1.25213460287415</v>
+        <v>1.251605082638662</v>
       </c>
       <c r="D25">
-        <v>0.2482398339672613</v>
+        <v>0.6420637801898863</v>
       </c>
       <c r="E25">
-        <v>0.04004621406922126</v>
+        <v>0.2889365205509407</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.043937739711154</v>
+        <v>0.0007939904626572942</v>
       </c>
       <c r="H25">
-        <v>2.148605044166104</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2.186749287793262</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1728952522664855</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.33951147233627</v>
       </c>
       <c r="L25">
-        <v>0.2135801440459133</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8767640117491808</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.661662945970789</v>
+      </c>
+      <c r="O25">
+        <v>2.954613235936307</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_49/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.872531794569795</v>
+        <v>1.040662721572232</v>
       </c>
       <c r="C2">
-        <v>1.036260096702222</v>
+        <v>0.1506158411010716</v>
       </c>
       <c r="D2">
-        <v>0.5543095126114963</v>
+        <v>0.5527305401953981</v>
       </c>
       <c r="E2">
-        <v>0.2475703964442459</v>
+        <v>0.2467639315684593</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008100425618351335</v>
+        <v>0.4904142754938334</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.3971264239141306</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1467376052619827</v>
+        <v>0.1461832041737807</v>
       </c>
       <c r="K2">
-        <v>1.113450967860828</v>
+        <v>1.095850126314645</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.656583813552786</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.599198065246327</v>
+        <v>1.818171563014943</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.365046254162735</v>
+        <v>0.9041582305150087</v>
       </c>
       <c r="C3">
-        <v>0.8962508898641204</v>
+        <v>0.1344309872367546</v>
       </c>
       <c r="D3">
-        <v>0.4979593008835366</v>
+        <v>0.4986977760863738</v>
       </c>
       <c r="E3">
-        <v>0.2209844674393935</v>
+        <v>0.2213728564599933</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008211591960024402</v>
+        <v>0.4792867397252962</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.3989862895809893</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1299095026888466</v>
+        <v>0.1301839089050247</v>
       </c>
       <c r="K3">
-        <v>0.96628823736431</v>
+        <v>0.9540327918058438</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.659252237907168</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.3738956401927</v>
+        <v>1.798041331561762</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.061515773267672</v>
+        <v>0.8205369647122041</v>
       </c>
       <c r="C4">
-        <v>0.8125869507288144</v>
+        <v>0.1244857897103486</v>
       </c>
       <c r="D4">
-        <v>0.4646211972334982</v>
+        <v>0.4661550903747411</v>
       </c>
       <c r="E4">
-        <v>0.2052419664628857</v>
+        <v>0.2060722934370816</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008281268870713829</v>
+        <v>0.4736290030285204</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.4008322796320343</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1199349563182466</v>
+        <v>0.1205367728299436</v>
       </c>
       <c r="K4">
-        <v>0.878289710965376</v>
+        <v>0.8670628863979175</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.663503589882211</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.241880387907457</v>
+        <v>1.789634346889329</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.939579593945382</v>
+        <v>0.7864958577152663</v>
       </c>
       <c r="C5">
-        <v>0.778990784255285</v>
+        <v>0.1204299107329518</v>
       </c>
       <c r="D5">
-        <v>0.4513163526320341</v>
+        <v>0.4530415076721965</v>
       </c>
       <c r="E5">
-        <v>0.1989555822569145</v>
+        <v>0.1999044019730434</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008310052302957508</v>
+        <v>0.4716041426526942</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.401755093132607</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1159490964539174</v>
+        <v>0.1166461437296888</v>
       </c>
       <c r="K5">
-        <v>0.8429420588826844</v>
+        <v>0.8316357597810224</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.66584039223217</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.189494988472518</v>
+        <v>1.787157818730833</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.91943072416052</v>
+        <v>0.7808451123054851</v>
       </c>
       <c r="C6">
-        <v>0.77344000676527</v>
+        <v>0.1197562122815725</v>
       </c>
       <c r="D6">
-        <v>0.4491230558891175</v>
+        <v>0.4508726105922563</v>
       </c>
       <c r="E6">
-        <v>0.1979190402441091</v>
+        <v>0.1988841289700218</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008314856180451705</v>
+        <v>0.4712844560881493</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.4019184438058403</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1152917061308685</v>
+        <v>0.1160024582479835</v>
       </c>
       <c r="K6">
-        <v>0.8371013553799287</v>
+        <v>0.8257535830574625</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.666263483611687</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.180876870077526</v>
+        <v>1.786802671262905</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.059864534252824</v>
+        <v>0.8200777487750486</v>
       </c>
       <c r="C7">
-        <v>0.8121319475389157</v>
+        <v>0.1244311049221807</v>
       </c>
       <c r="D7">
-        <v>0.4644406721901362</v>
+        <v>0.4659776522420032</v>
       </c>
       <c r="E7">
-        <v>0.2051566861330159</v>
+        <v>0.2059888461731347</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008281655436403167</v>
+        <v>0.473600577280628</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.4008440427503999</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1198808962400193</v>
+        <v>0.1204841426024643</v>
       </c>
       <c r="K7">
-        <v>0.8778110259687537</v>
+        <v>0.8665850644009652</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.663532723370594</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2.241168404463821</v>
+        <v>1.789597160876411</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.69570190441209</v>
+        <v>0.9935476128322591</v>
       </c>
       <c r="C8">
-        <v>0.9874551636634692</v>
+        <v>0.1450361273392247</v>
       </c>
       <c r="D8">
-        <v>0.5345949841087361</v>
+        <v>0.5339613948304418</v>
       </c>
       <c r="E8">
-        <v>0.2382718229649186</v>
+        <v>0.2379454830872376</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008138481560136675</v>
+        <v>0.4863246532734706</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.3976175829257045</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1408538520155105</v>
+        <v>0.140627706429548</v>
       </c>
       <c r="K8">
-        <v>1.062167823918358</v>
+        <v>1.046921308318559</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.656927981469735</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2.520088572581841</v>
+        <v>1.810382610071031</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.020765394409295</v>
+        <v>1.335909744131158</v>
       </c>
       <c r="C9">
-        <v>1.35375966525686</v>
+        <v>0.185442877566345</v>
       </c>
       <c r="D9">
-        <v>0.6840625823819266</v>
+        <v>0.6728619736032613</v>
       </c>
       <c r="E9">
-        <v>0.3087250757315658</v>
+        <v>0.3031828394262774</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007867321262567347</v>
+        <v>0.5212975193214362</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.3971862348562638</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1854022632601726</v>
+        <v>0.1817098033076974</v>
       </c>
       <c r="K9">
-        <v>1.446613731878685</v>
+        <v>1.402047630447555</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.667435324971407</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>3.126405404666372</v>
+        <v>1.884643759322273</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.065146358600146</v>
+        <v>1.589776630066211</v>
       </c>
       <c r="C10">
-        <v>1.64354891008702</v>
+        <v>0.2152242891440324</v>
       </c>
       <c r="D10">
-        <v>0.8042233502874581</v>
+        <v>0.7791503712951737</v>
       </c>
       <c r="E10">
-        <v>0.3653284221399744</v>
+        <v>0.3530872187432834</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007671243304179206</v>
+        <v>0.554139690528487</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.4009221359487043</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2211705172492344</v>
+        <v>0.2131263233266623</v>
       </c>
       <c r="K10">
-        <v>1.749916406392614</v>
+        <v>1.664847111570765</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.693922594558998</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>3.623107791222793</v>
+        <v>1.962789841217329</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.562043985707078</v>
+        <v>1.706015269422636</v>
       </c>
       <c r="C11">
-        <v>1.781798901202137</v>
+        <v>0.228816265644511</v>
       </c>
       <c r="D11">
-        <v>0.861990543570812</v>
+        <v>0.8286239359723027</v>
       </c>
       <c r="E11">
-        <v>0.3925399473095581</v>
+        <v>0.3763166057206462</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.000758198210069283</v>
+        <v>0.5708809941423425</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.4036116001558838</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2383669402574924</v>
+        <v>0.2277512782492579</v>
       </c>
       <c r="K11">
-        <v>1.89432386577991</v>
+        <v>1.785049075081815</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.71128660013477</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>3.864359018056859</v>
+        <v>2.004219312701849</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.753998316194156</v>
+        <v>1.75016144341987</v>
       </c>
       <c r="C12">
-        <v>1.835273692190356</v>
+        <v>0.2339716052135827</v>
       </c>
       <c r="D12">
-        <v>0.8844002333376864</v>
+        <v>0.847537534885106</v>
       </c>
       <c r="E12">
-        <v>0.4030968259241234</v>
+        <v>0.3851975915086499</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.000754809602784956</v>
+        <v>0.5775019067571634</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.404782321460246</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.245039198456908</v>
+        <v>0.2333431324875335</v>
       </c>
       <c r="K12">
-        <v>1.950127776171939</v>
+        <v>1.830681346904726</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.718754485860615</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>3.95834326016174</v>
+        <v>2.020821488144719</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.712477169003876</v>
+        <v>1.740647683397441</v>
       </c>
       <c r="C13">
-        <v>1.823703423680399</v>
+        <v>0.2328609055839621</v>
       </c>
       <c r="D13">
-        <v>0.8795485478460137</v>
+        <v>0.8434558951948929</v>
       </c>
       <c r="E13">
-        <v>0.4008112238342889</v>
+        <v>0.3832810083204592</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007555399128270551</v>
+        <v>0.5760630881764826</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.4045232468868676</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2435945838648905</v>
+        <v>0.2321363417346021</v>
       </c>
       <c r="K13">
-        <v>1.938056085684352</v>
+        <v>1.82084818917636</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.717104133971105</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>3.937977499034503</v>
+        <v>2.017204133522455</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.57775602735046</v>
+        <v>1.709644488918201</v>
       </c>
       <c r="C14">
-        <v>1.786174528273932</v>
+        <v>0.229240219123497</v>
       </c>
       <c r="D14">
-        <v>0.8638229250638005</v>
+        <v>0.8301762752491015</v>
       </c>
       <c r="E14">
-        <v>0.3934031372153086</v>
+        <v>0.3770455039121785</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007579196457256571</v>
+        <v>0.5714199281115242</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.4037048046590144</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2389124817802042</v>
+        <v>0.2282102126256689</v>
       </c>
       <c r="K14">
-        <v>1.898891191176119</v>
+        <v>1.788800853715145</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.711882275834654</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>3.872035750255776</v>
+        <v>2.005566462330421</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.495750569208099</v>
+        <v>1.690671598005224</v>
       </c>
       <c r="C15">
-        <v>1.763339747875534</v>
+        <v>0.2270235938757992</v>
       </c>
       <c r="D15">
-        <v>0.8542630355845233</v>
+        <v>0.8220659862230093</v>
       </c>
       <c r="E15">
-        <v>0.3888997402518939</v>
+        <v>0.3732373526270862</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007593759480199833</v>
+        <v>0.5686131893669426</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.4032236238306552</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2360663422483213</v>
+        <v>0.22581251720095</v>
       </c>
       <c r="K15">
-        <v>1.875053832569165</v>
+        <v>1.769186468942394</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.708804200971883</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>3.832000820237766</v>
+        <v>1.998559158211947</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.033164882667961</v>
+        <v>1.582197061385585</v>
       </c>
       <c r="C16">
-        <v>1.634659343544172</v>
+        <v>0.2143370782742267</v>
       </c>
       <c r="D16">
-        <v>0.8005177623164172</v>
+        <v>0.7759412205169269</v>
       </c>
       <c r="E16">
-        <v>0.3635829367247609</v>
+        <v>0.3515804652548979</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007677069295328742</v>
+        <v>0.5530837232346784</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.4007671252410177</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.220067524670668</v>
+        <v>0.2121777392742104</v>
       </c>
       <c r="K16">
-        <v>1.740624326404514</v>
+        <v>1.657006486953577</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.692905177333628</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>3.607684054391257</v>
+        <v>1.96020636546649</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.755396638890943</v>
+        <v>1.515858682986561</v>
       </c>
       <c r="C17">
-        <v>1.557493194705046</v>
+        <v>0.2065670101063262</v>
       </c>
       <c r="D17">
-        <v>0.7683996972871512</v>
+        <v>0.7479447826546561</v>
       </c>
       <c r="E17">
-        <v>0.3484540253041928</v>
+        <v>0.338435753421038</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007728111171019236</v>
+        <v>0.5440336060234188</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.3995205278100542</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2105075837666988</v>
+        <v>0.2039025980229354</v>
       </c>
       <c r="K17">
-        <v>1.659931451638101</v>
+        <v>1.588369051189716</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.684596738650882</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>3.474271242266184</v>
+        <v>1.938231177834211</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.597638343763094</v>
+        <v>1.47777216964883</v>
       </c>
       <c r="C18">
-        <v>1.513699974700046</v>
+        <v>0.2021019097572747</v>
       </c>
       <c r="D18">
-        <v>0.7502124025119485</v>
+        <v>0.7319464895999488</v>
       </c>
       <c r="E18">
-        <v>0.3398869776783044</v>
+        <v>0.3309243706353726</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007757468302449046</v>
+        <v>0.5389963264033639</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.3988960631608336</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2050941416593872</v>
+        <v>0.1991739687346694</v>
       </c>
       <c r="K18">
-        <v>1.614111021160639</v>
+        <v>1.548950772340845</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.68030924614834</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>3.39894590092598</v>
+        <v>1.926140753287797</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.54455072497683</v>
+        <v>1.464888071369359</v>
       </c>
       <c r="C19">
-        <v>1.498968340717568</v>
+        <v>0.2005907390964978</v>
       </c>
       <c r="D19">
-        <v>0.7441012290580602</v>
+        <v>0.7265471778084986</v>
       </c>
       <c r="E19">
-        <v>0.3370082993061629</v>
+        <v>0.328389326973074</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007767410066515848</v>
+        <v>0.537319009449746</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3987002346686808</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2032751244622375</v>
+        <v>0.1975780944847116</v>
       </c>
       <c r="K19">
-        <v>1.598693326705643</v>
+        <v>1.535614155254962</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.678938434302921</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>3.373672475610491</v>
+        <v>1.922139461878629</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.784753504893956</v>
+        <v>1.522913171148048</v>
       </c>
       <c r="C20">
-        <v>1.56564520667439</v>
+        <v>0.2073937154171261</v>
       </c>
       <c r="D20">
-        <v>0.7717885182338193</v>
+        <v>0.750914110625871</v>
       </c>
       <c r="E20">
-        <v>0.3500503023462045</v>
+        <v>0.3398298874224395</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007722678263105251</v>
+        <v>0.5449794514266841</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.3996435826672098</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2115162584529173</v>
+        <v>0.2047802509282377</v>
       </c>
       <c r="K20">
-        <v>1.668458782932206</v>
+        <v>1.595669254058208</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.685429486199112</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>3.488324471458753</v>
+        <v>1.940513164687076</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.617218188554659</v>
+        <v>1.718747200378658</v>
       </c>
       <c r="C21">
-        <v>1.797165429450729</v>
+        <v>0.2303034591018189</v>
       </c>
       <c r="D21">
-        <v>0.8684266292002008</v>
+        <v>0.8340718154051388</v>
       </c>
       <c r="E21">
-        <v>0.3955718427467971</v>
+        <v>0.3788746565751779</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007572209579863687</v>
+        <v>0.5727759147981004</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.4039409853165097</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2402831325293704</v>
+        <v>0.2293619063553791</v>
       </c>
       <c r="K21">
-        <v>1.910362734723307</v>
+        <v>1.798210656917263</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.713390692200448</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>3.891329305145007</v>
+        <v>2.008959361215801</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.18377404381306</v>
+        <v>1.84749954656985</v>
       </c>
       <c r="C22">
-        <v>1.955142840839244</v>
+        <v>0.2453260381632418</v>
       </c>
       <c r="D22">
-        <v>0.934754777325935</v>
+        <v>0.8894729016052452</v>
       </c>
       <c r="E22">
-        <v>0.4268203188783346</v>
+        <v>0.4048898305752076</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007473329178377333</v>
+        <v>0.5925940094940074</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.4076423511787652</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.260035406650772</v>
+        <v>0.2457434559585039</v>
       </c>
       <c r="K22">
-        <v>2.07510839793828</v>
+        <v>1.931260675709524</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.736946180801596</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>4.17029478625048</v>
+        <v>2.059054281557934</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.879083642283774</v>
+        <v>1.778704831197359</v>
       </c>
       <c r="C23">
-        <v>1.870140945653645</v>
+        <v>0.2373029514323832</v>
       </c>
       <c r="D23">
-        <v>0.8990304301823926</v>
+        <v>0.8598017926389048</v>
       </c>
       <c r="E23">
-        <v>0.4099891938006834</v>
+        <v>0.3909565170540006</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007526181860479043</v>
+        <v>0.5818577796558344</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.4055816949689302</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2493956888244924</v>
+        <v>0.2369693769342689</v>
       </c>
       <c r="K23">
-        <v>1.986497574603831</v>
+        <v>1.860180183753272</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.723841662627564</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>4.019816141037808</v>
+        <v>2.031803225167323</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.771475288321824</v>
+        <v>1.519723675687175</v>
       </c>
       <c r="C24">
-        <v>1.561957919131601</v>
+        <v>0.2070199558168895</v>
       </c>
       <c r="D24">
-        <v>0.7702555733598899</v>
+        <v>0.7495713759107048</v>
       </c>
       <c r="E24">
-        <v>0.3493282212527404</v>
+        <v>0.3391994577809498</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007725134435943974</v>
+        <v>0.5445513201034942</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.39958766306016</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2110599810292939</v>
+        <v>0.2043833745881045</v>
       </c>
       <c r="K24">
-        <v>1.664601812160384</v>
+        <v>1.59236870212257</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.685051486861184</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>3.48196675345983</v>
+        <v>1.93947979094051</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.651751520805192</v>
+        <v>1.242958571935475</v>
       </c>
       <c r="C25">
-        <v>1.251605082638662</v>
+        <v>0.174502456816569</v>
       </c>
       <c r="D25">
-        <v>0.6420637801898863</v>
+        <v>0.6346051790640388</v>
       </c>
       <c r="E25">
-        <v>0.2889365205509407</v>
+        <v>0.285218847637033</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007939904626572942</v>
+        <v>0.5106606436903434</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.3966263011191984</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1728952522664855</v>
+        <v>0.1704000662174536</v>
       </c>
       <c r="K25">
-        <v>1.33951147233627</v>
+        <v>1.305720320187703</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.661662945970789</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.954613235936307</v>
+        <v>1.860654047648325</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_49/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.040662721572232</v>
+        <v>0.4282382573302925</v>
       </c>
       <c r="C2">
-        <v>0.1506158411010716</v>
+        <v>0.0441531750018811</v>
       </c>
       <c r="D2">
-        <v>0.5527305401953981</v>
+        <v>0.6556695097541194</v>
       </c>
       <c r="E2">
-        <v>0.2467639315684593</v>
+        <v>0.2675544873670006</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4904142754938334</v>
+        <v>0.8695349742738046</v>
       </c>
       <c r="H2">
-        <v>0.3971264239141306</v>
+        <v>0.9352458498722882</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1461832041737807</v>
+        <v>0.1393602964036802</v>
       </c>
       <c r="K2">
-        <v>1.095850126314645</v>
+        <v>0.3954657513750135</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.818171563014943</v>
+        <v>3.639368077770797</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9041582305150087</v>
+        <v>0.3881058685289815</v>
       </c>
       <c r="C3">
-        <v>0.1344309872367546</v>
+        <v>0.03886133666514979</v>
       </c>
       <c r="D3">
-        <v>0.4986977760863738</v>
+        <v>0.6451922757689488</v>
       </c>
       <c r="E3">
-        <v>0.2213728564599933</v>
+        <v>0.2624194397106621</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4792867397252962</v>
+        <v>0.8738792508109654</v>
       </c>
       <c r="H3">
-        <v>0.3989862895809893</v>
+        <v>0.9417142787176545</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1301839089050247</v>
+        <v>0.1359607556885578</v>
       </c>
       <c r="K3">
-        <v>0.9540327918058438</v>
+        <v>0.3526853071757898</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.798041331561762</v>
+        <v>3.661814556499749</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8205369647122041</v>
+        <v>0.3635260368729973</v>
       </c>
       <c r="C4">
-        <v>0.1244857897103486</v>
+        <v>0.03559633351575542</v>
       </c>
       <c r="D4">
-        <v>0.4661550903747411</v>
+        <v>0.6390897997721936</v>
       </c>
       <c r="E4">
-        <v>0.2060722934370816</v>
+        <v>0.2594075812402252</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4736290030285204</v>
+        <v>0.8770905960700546</v>
       </c>
       <c r="H4">
-        <v>0.4008322796320343</v>
+        <v>0.9460883387850814</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1205367728299436</v>
+        <v>0.1339512140312564</v>
       </c>
       <c r="K4">
-        <v>0.8670628863979175</v>
+        <v>0.326422754597246</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.789634346889329</v>
+        <v>3.677581700991865</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7864958577152663</v>
+        <v>0.3535256216705989</v>
       </c>
       <c r="C5">
-        <v>0.1204299107329518</v>
+        <v>0.03426192844905529</v>
       </c>
       <c r="D5">
-        <v>0.4530415076721965</v>
+        <v>0.6366862539041165</v>
       </c>
       <c r="E5">
-        <v>0.1999044019730434</v>
+        <v>0.2582157394604039</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4716041426526942</v>
+        <v>0.8785359082891162</v>
       </c>
       <c r="H5">
-        <v>0.401755093132607</v>
+        <v>0.9479720378956955</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1166461437296888</v>
+        <v>0.1331518760748978</v>
       </c>
       <c r="K5">
-        <v>0.8316357597810224</v>
+        <v>0.3157223678636569</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.787157818730833</v>
+        <v>3.684505900458532</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7808451123054851</v>
+        <v>0.3518660475656645</v>
       </c>
       <c r="C6">
-        <v>0.1197562122815725</v>
+        <v>0.03404011898477677</v>
       </c>
       <c r="D6">
-        <v>0.4508726105922563</v>
+        <v>0.6362921797546903</v>
       </c>
       <c r="E6">
-        <v>0.1988841289700218</v>
+        <v>0.2580199812145025</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4712844560881493</v>
+        <v>0.8787841520034476</v>
       </c>
       <c r="H6">
-        <v>0.4019184438058403</v>
+        <v>0.9482909402539264</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1160024582479835</v>
+        <v>0.1330203285630631</v>
       </c>
       <c r="K6">
-        <v>0.8257535830574625</v>
+        <v>0.3139457044435972</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.786802671262905</v>
+        <v>3.685685789721362</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8200777487750486</v>
+        <v>0.3633911019653908</v>
       </c>
       <c r="C7">
-        <v>0.1244311049221807</v>
+        <v>0.03557835290270361</v>
       </c>
       <c r="D7">
-        <v>0.4659776522420032</v>
+        <v>0.63905704740651</v>
       </c>
       <c r="E7">
-        <v>0.2059888461731347</v>
+        <v>0.2593913637939664</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.473600577280628</v>
+        <v>0.8771095348677491</v>
       </c>
       <c r="H7">
-        <v>0.4008440427503999</v>
+        <v>0.9461133330620797</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1204841426024643</v>
+        <v>0.1339403546473008</v>
       </c>
       <c r="K7">
-        <v>0.8665850644009652</v>
+        <v>0.3262784372778071</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.789597160876411</v>
+        <v>3.677673063120224</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9935476128322591</v>
+        <v>0.4143881504529645</v>
       </c>
       <c r="C8">
-        <v>0.1450361273392247</v>
+        <v>0.04233187414858719</v>
       </c>
       <c r="D8">
-        <v>0.5339613948304418</v>
+        <v>0.6519884211414251</v>
       </c>
       <c r="E8">
-        <v>0.2379454830872376</v>
+        <v>0.2657546625068861</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4863246532734706</v>
+        <v>0.8709199148874518</v>
       </c>
       <c r="H8">
-        <v>0.3976175829257045</v>
+        <v>0.9373926674729347</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.140627706429548</v>
+        <v>0.1381719913948203</v>
       </c>
       <c r="K8">
-        <v>1.046921308318559</v>
+        <v>0.3807144048705595</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.810382610071031</v>
+        <v>3.6466955528673</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.335909744131158</v>
+        <v>0.514862142623798</v>
       </c>
       <c r="C9">
-        <v>0.185442877566345</v>
+        <v>0.05544724859531414</v>
       </c>
       <c r="D9">
-        <v>0.6728619736032613</v>
+        <v>0.6799660935058967</v>
       </c>
       <c r="E9">
-        <v>0.3031828394262774</v>
+        <v>0.2793517597284136</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5212975193214362</v>
+        <v>0.8631039296232359</v>
       </c>
       <c r="H9">
-        <v>0.3971862348562638</v>
+        <v>0.9234828015470526</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1817098033076974</v>
+        <v>0.1470878135779543</v>
       </c>
       <c r="K9">
-        <v>1.402047630447555</v>
+        <v>0.4874800762892733</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.884643759322273</v>
+        <v>3.601707505546585</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.589776630066211</v>
+        <v>0.5889469993342686</v>
       </c>
       <c r="C10">
-        <v>0.2152242891440324</v>
+        <v>0.06500188873559409</v>
       </c>
       <c r="D10">
-        <v>0.7791503712951737</v>
+        <v>0.7021160887527174</v>
       </c>
       <c r="E10">
-        <v>0.3530872187432834</v>
+        <v>0.2900239945673064</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.554139690528487</v>
+        <v>0.8600054058292983</v>
       </c>
       <c r="H10">
-        <v>0.4009221359487043</v>
+        <v>0.9152067845807608</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2131263233266623</v>
+        <v>0.1540161720966324</v>
       </c>
       <c r="K10">
-        <v>1.664847111570765</v>
+        <v>0.5659104058546518</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.962789841217329</v>
+        <v>3.578277549998489</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.706015269422636</v>
+        <v>0.6227044247654874</v>
       </c>
       <c r="C11">
-        <v>0.228816265644511</v>
+        <v>0.06933032602371725</v>
       </c>
       <c r="D11">
-        <v>0.8286239359723027</v>
+        <v>0.7125387684589271</v>
       </c>
       <c r="E11">
-        <v>0.3763166057206462</v>
+        <v>0.2950274491293001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5708809941423425</v>
+        <v>0.8591719407251617</v>
       </c>
       <c r="H11">
-        <v>0.4036116001558838</v>
+        <v>0.9118634601834827</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2277512782492579</v>
+        <v>0.1572504753011543</v>
       </c>
       <c r="K11">
-        <v>1.785049075081815</v>
+        <v>0.6015842650039644</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.004219312701849</v>
+        <v>3.56971178481416</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.75016144341987</v>
+        <v>0.6354950468183631</v>
       </c>
       <c r="C12">
-        <v>0.2339716052135827</v>
+        <v>0.07096673344251769</v>
       </c>
       <c r="D12">
-        <v>0.847537534885106</v>
+        <v>0.7165353120042823</v>
       </c>
       <c r="E12">
-        <v>0.3851975915086499</v>
+        <v>0.2969434800708157</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5775019067571634</v>
+        <v>0.8589393167912789</v>
       </c>
       <c r="H12">
-        <v>0.404782321460246</v>
+        <v>0.9106580085614411</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2333431324875335</v>
+        <v>0.1584871028853883</v>
       </c>
       <c r="K12">
-        <v>1.830681346904726</v>
+        <v>0.6150918834852064</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.020821488144719</v>
+        <v>3.566769334098723</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.740647683397441</v>
+        <v>0.6327400373494072</v>
       </c>
       <c r="C13">
-        <v>0.2328609055839621</v>
+        <v>0.070614424303443</v>
       </c>
       <c r="D13">
-        <v>0.8434558951948929</v>
+        <v>0.7156723764607023</v>
       </c>
       <c r="E13">
-        <v>0.3832810083204592</v>
+        <v>0.2965298804077889</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5760630881764826</v>
+        <v>0.85898572302753</v>
       </c>
       <c r="H13">
-        <v>0.4045232468868676</v>
+        <v>0.910914929492975</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2321363417346021</v>
+        <v>0.15822024528903</v>
       </c>
       <c r="K13">
-        <v>1.82084818917636</v>
+        <v>0.6121828442260551</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.017204133522455</v>
+        <v>3.567389641957107</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.709644488918201</v>
+        <v>0.6237565717850941</v>
       </c>
       <c r="C14">
-        <v>0.229240219123497</v>
+        <v>0.06946500841161196</v>
       </c>
       <c r="D14">
-        <v>0.8301762752491015</v>
+        <v>0.7128665711684619</v>
       </c>
       <c r="E14">
-        <v>0.3770455039121785</v>
+        <v>0.2951846548518233</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5714199281115242</v>
+        <v>0.859151138471276</v>
       </c>
       <c r="H14">
-        <v>0.4037048046590144</v>
+        <v>0.9117630726687906</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2282102126256689</v>
+        <v>0.1573519755880284</v>
       </c>
       <c r="K14">
-        <v>1.788800853715145</v>
+        <v>0.6026955746371527</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.005566462330421</v>
+        <v>3.569463669037162</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.690671598005224</v>
+        <v>0.6182548875621876</v>
       </c>
       <c r="C15">
-        <v>0.2270235938757992</v>
+        <v>0.06876060668112416</v>
       </c>
       <c r="D15">
-        <v>0.8220659862230093</v>
+        <v>0.7111544030667574</v>
       </c>
       <c r="E15">
-        <v>0.3732373526270862</v>
+        <v>0.2943634422073771</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5686131893669426</v>
+        <v>0.8592632726491587</v>
       </c>
       <c r="H15">
-        <v>0.4032236238306552</v>
+        <v>0.9122904753790664</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.22581251720095</v>
+        <v>0.1568216806407037</v>
       </c>
       <c r="K15">
-        <v>1.769186468942394</v>
+        <v>0.5968841597767209</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.998559158211947</v>
+        <v>3.5707733069585</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.582197061385585</v>
+        <v>0.5867419435537329</v>
       </c>
       <c r="C16">
-        <v>0.2143370782742267</v>
+        <v>0.0647186451820545</v>
       </c>
       <c r="D16">
-        <v>0.7759412205169269</v>
+        <v>0.7014419041567805</v>
       </c>
       <c r="E16">
-        <v>0.3515804652548979</v>
+        <v>0.2896999940895242</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5530837232346784</v>
+        <v>0.8600714798233042</v>
       </c>
       <c r="H16">
-        <v>0.4007671252410177</v>
+        <v>0.9154337585876675</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2121777392742104</v>
+        <v>0.1538064636664416</v>
       </c>
       <c r="K16">
-        <v>1.657006486953577</v>
+        <v>0.5635788890835443</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.96020636546649</v>
+        <v>3.578879477774393</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.515858682986561</v>
+        <v>0.56742364067415</v>
       </c>
       <c r="C17">
-        <v>0.2065670101063262</v>
+        <v>0.06223435609689432</v>
       </c>
       <c r="D17">
-        <v>0.7479447826546561</v>
+        <v>0.6955722639842179</v>
       </c>
       <c r="E17">
-        <v>0.338435753421038</v>
+        <v>0.286877153520571</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5440336060234188</v>
+        <v>0.8607149430139174</v>
       </c>
       <c r="H17">
-        <v>0.3995205278100542</v>
+        <v>0.9174700005390406</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2039025980229354</v>
+        <v>0.1519778675987027</v>
       </c>
       <c r="K17">
-        <v>1.588369051189716</v>
+        <v>0.5431455690624603</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.938231177834211</v>
+        <v>3.584388539464669</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.47777216964883</v>
+        <v>0.5563175574378647</v>
       </c>
       <c r="C18">
-        <v>0.2021019097572747</v>
+        <v>0.06080376809852339</v>
       </c>
       <c r="D18">
-        <v>0.7319464895999488</v>
+        <v>0.6922288276014683</v>
       </c>
       <c r="E18">
-        <v>0.3309243706353726</v>
+        <v>0.2852675196007795</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5389963264033639</v>
+        <v>0.8611392592280822</v>
       </c>
       <c r="H18">
-        <v>0.3988960631608336</v>
+        <v>0.9186808653552276</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1991739687346694</v>
+        <v>0.1509338785556906</v>
       </c>
       <c r="K18">
-        <v>1.548950772340845</v>
+        <v>0.5313924798582832</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.926140753287797</v>
+        <v>3.587754157219592</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.464888071369359</v>
+        <v>0.5525581564163531</v>
       </c>
       <c r="C19">
-        <v>0.2005907390964978</v>
+        <v>0.06031910787868355</v>
       </c>
       <c r="D19">
-        <v>0.7265471778084986</v>
+        <v>0.6911024049067294</v>
       </c>
       <c r="E19">
-        <v>0.328389326973074</v>
+        <v>0.2847249290286129</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.537319009449746</v>
+        <v>0.8612922319025529</v>
       </c>
       <c r="H19">
-        <v>0.3987002346686808</v>
+        <v>0.919097657604425</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1975780944847116</v>
+        <v>0.1505817366270463</v>
       </c>
       <c r="K19">
-        <v>1.535614155254962</v>
+        <v>0.5274130397716874</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.922139461878629</v>
+        <v>3.588927514990701</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.522913171148048</v>
+        <v>0.5694795635796197</v>
       </c>
       <c r="C20">
-        <v>0.2073937154171261</v>
+        <v>0.062498988519053</v>
       </c>
       <c r="D20">
-        <v>0.750914110625871</v>
+        <v>0.696193721540368</v>
       </c>
       <c r="E20">
-        <v>0.3398298874224395</v>
+        <v>0.2871762021479043</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5449794514266841</v>
+        <v>0.8606408332821758</v>
       </c>
       <c r="H20">
-        <v>0.3996435826672098</v>
+        <v>0.9172491332820272</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2047802509282377</v>
+        <v>0.1521717205308875</v>
       </c>
       <c r="K20">
-        <v>1.595669254058208</v>
+        <v>0.5453207753342042</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.940513164687076</v>
+        <v>3.583781704555463</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.718747200378658</v>
+        <v>0.6263950369499014</v>
       </c>
       <c r="C21">
-        <v>0.2303034591018189</v>
+        <v>0.06980269308864706</v>
       </c>
       <c r="D21">
-        <v>0.8340718154051388</v>
+        <v>0.7136893563681781</v>
       </c>
       <c r="E21">
-        <v>0.3788746565751779</v>
+        <v>0.2955792015802103</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5727759147981004</v>
+        <v>0.8591002983702367</v>
       </c>
       <c r="H21">
-        <v>0.4039409853165097</v>
+        <v>0.9115123081072767</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2293619063553791</v>
+        <v>0.1576066854125173</v>
       </c>
       <c r="K21">
-        <v>1.798210656917263</v>
+        <v>0.6054822560901698</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.008959361215801</v>
+        <v>3.56884629963389</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.84749954656985</v>
+        <v>0.6636355418332869</v>
       </c>
       <c r="C22">
-        <v>0.2453260381632418</v>
+        <v>0.07456043775442822</v>
       </c>
       <c r="D22">
-        <v>0.8894729016052452</v>
+        <v>0.7254133996164569</v>
       </c>
       <c r="E22">
-        <v>0.4048898305752076</v>
+        <v>0.3011953650966177</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5925940094940074</v>
+        <v>0.858577276730486</v>
       </c>
       <c r="H22">
-        <v>0.4076423511787652</v>
+        <v>0.9081161355326373</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2457434559585039</v>
+        <v>0.161227917787059</v>
       </c>
       <c r="K22">
-        <v>1.931260675709524</v>
+        <v>0.6447933970635802</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.059054281557934</v>
+        <v>3.560841020833038</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.778704831197359</v>
+        <v>0.6437558554640361</v>
       </c>
       <c r="C23">
-        <v>0.2373029514323832</v>
+        <v>0.07202260033321295</v>
       </c>
       <c r="D23">
-        <v>0.8598017926389048</v>
+        <v>0.7191295986513637</v>
       </c>
       <c r="E23">
-        <v>0.3909565170540006</v>
+        <v>0.2981865502514225</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5818577796558344</v>
+        <v>0.8588121043861605</v>
       </c>
       <c r="H23">
-        <v>0.4055816949689302</v>
+        <v>0.9098964261682454</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2369693769342689</v>
+        <v>0.1592888705333309</v>
       </c>
       <c r="K23">
-        <v>1.860180183753272</v>
+        <v>0.6238132354453114</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.031803225167323</v>
+        <v>3.564952827487957</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.519723675687175</v>
+        <v>0.5685500799588112</v>
       </c>
       <c r="C24">
-        <v>0.2070199558168895</v>
+        <v>0.06237935547531492</v>
       </c>
       <c r="D24">
-        <v>0.7495713759107048</v>
+        <v>0.6959126637037514</v>
       </c>
       <c r="E24">
-        <v>0.3391994577809498</v>
+        <v>0.2870409609747568</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5445513201034942</v>
+        <v>0.8606741689093553</v>
       </c>
       <c r="H24">
-        <v>0.39958766306016</v>
+        <v>0.917348862137672</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2043833745881045</v>
+        <v>0.1520840568972233</v>
       </c>
       <c r="K24">
-        <v>1.59236870212257</v>
+        <v>0.5443373822899957</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.93947979094051</v>
+        <v>3.584055436674333</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.242958571935475</v>
+        <v>0.4876330648266389</v>
       </c>
       <c r="C25">
-        <v>0.174502456816569</v>
+        <v>0.05191323968800532</v>
       </c>
       <c r="D25">
-        <v>0.6346051790640388</v>
+        <v>0.672117184693235</v>
       </c>
       <c r="E25">
-        <v>0.285218847637033</v>
+        <v>0.2755535730894252</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5106606436903434</v>
+        <v>0.8647547284020476</v>
       </c>
       <c r="H25">
-        <v>0.3966263011191984</v>
+        <v>0.9269043393222063</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1704000662174536</v>
+        <v>0.1446095844466342</v>
       </c>
       <c r="K25">
-        <v>1.305720320187703</v>
+        <v>0.4585974783697395</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.860654047648325</v>
+        <v>3.61218924813025</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_49/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4282382573302925</v>
+        <v>1.040662721572403</v>
       </c>
       <c r="C2">
-        <v>0.0441531750018811</v>
+        <v>0.1506158411011285</v>
       </c>
       <c r="D2">
-        <v>0.6556695097541194</v>
+        <v>0.5527305401955687</v>
       </c>
       <c r="E2">
-        <v>0.2675544873670006</v>
+        <v>0.2467639315684664</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.8695349742738046</v>
+        <v>0.4904142754938192</v>
       </c>
       <c r="H2">
-        <v>0.9352458498722882</v>
+        <v>0.3971264239141163</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1393602964036802</v>
+        <v>0.1461832041737168</v>
       </c>
       <c r="K2">
-        <v>0.3954657513750135</v>
+        <v>1.095850126314588</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.639368077770797</v>
+        <v>1.818171563014999</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3881058685289815</v>
+        <v>0.9041582305150371</v>
       </c>
       <c r="C3">
-        <v>0.03886133666514979</v>
+        <v>0.134430987236712</v>
       </c>
       <c r="D3">
-        <v>0.6451922757689488</v>
+        <v>0.4986977760860896</v>
       </c>
       <c r="E3">
-        <v>0.2624194397106621</v>
+        <v>0.2213728564600075</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.8738792508109654</v>
+        <v>0.4792867397253033</v>
       </c>
       <c r="H3">
-        <v>0.9417142787176545</v>
+        <v>0.3989862895809893</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1359607556885578</v>
+        <v>0.1301839089050603</v>
       </c>
       <c r="K3">
-        <v>0.3526853071757898</v>
+        <v>0.954032791805929</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.661814556499749</v>
+        <v>1.798041331561762</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3635260368729973</v>
+        <v>0.8205369647122041</v>
       </c>
       <c r="C4">
-        <v>0.03559633351575542</v>
+        <v>0.1244857897104339</v>
       </c>
       <c r="D4">
-        <v>0.6390897997721936</v>
+        <v>0.4661550903749969</v>
       </c>
       <c r="E4">
-        <v>0.2594075812402252</v>
+        <v>0.2060722934370887</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.8770905960700546</v>
+        <v>0.4736290030284707</v>
       </c>
       <c r="H4">
-        <v>0.9460883387850814</v>
+        <v>0.4008322796320343</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1339512140312564</v>
+        <v>0.1205367728298441</v>
       </c>
       <c r="K4">
-        <v>0.326422754597246</v>
+        <v>0.8670628863977754</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.677581700991865</v>
+        <v>1.789634346889301</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3535256216705989</v>
+        <v>0.7864958577153232</v>
       </c>
       <c r="C5">
-        <v>0.03426192844905529</v>
+        <v>0.1204299107327245</v>
       </c>
       <c r="D5">
-        <v>0.6366862539041165</v>
+        <v>0.4530415076721681</v>
       </c>
       <c r="E5">
-        <v>0.2582157394604039</v>
+        <v>0.1999044019730292</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.8785359082891162</v>
+        <v>0.4716041426526445</v>
       </c>
       <c r="H5">
-        <v>0.9479720378956955</v>
+        <v>0.401755093132607</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1331518760748978</v>
+        <v>0.1166461437296107</v>
       </c>
       <c r="K5">
-        <v>0.3157223678636569</v>
+        <v>0.831635759780994</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.684505900458532</v>
+        <v>1.787157818730705</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3518660475656645</v>
+        <v>0.7808451123054851</v>
       </c>
       <c r="C6">
-        <v>0.03404011898477677</v>
+        <v>0.1197562122820557</v>
       </c>
       <c r="D6">
-        <v>0.6362921797546903</v>
+        <v>0.4508726105922278</v>
       </c>
       <c r="E6">
-        <v>0.2580199812145025</v>
+        <v>0.1988841289700289</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.8787841520034476</v>
+        <v>0.4712844560881422</v>
       </c>
       <c r="H6">
-        <v>0.9482909402539264</v>
+        <v>0.4019184438057266</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1330203285630631</v>
+        <v>0.1160024582479764</v>
       </c>
       <c r="K6">
-        <v>0.3139457044435972</v>
+        <v>0.8257535830575193</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.685685789721362</v>
+        <v>1.786802671262976</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3633911019653908</v>
+        <v>0.8200777487751623</v>
       </c>
       <c r="C7">
-        <v>0.03557835290270361</v>
+        <v>0.124431104921868</v>
       </c>
       <c r="D7">
-        <v>0.63905704740651</v>
+        <v>0.4659776522419747</v>
       </c>
       <c r="E7">
-        <v>0.2593913637939664</v>
+        <v>0.2059888461731418</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.8771095348677491</v>
+        <v>0.4736005772805427</v>
       </c>
       <c r="H7">
-        <v>0.9461133330620797</v>
+        <v>0.4008440427503999</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1339403546473008</v>
+        <v>0.1204841426022938</v>
       </c>
       <c r="K7">
-        <v>0.3262784372778071</v>
+        <v>0.8665850644009367</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.677673063120224</v>
+        <v>1.789597160876426</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4143881504529645</v>
+        <v>0.9935476128322591</v>
       </c>
       <c r="C8">
-        <v>0.04233187414858719</v>
+        <v>0.1450361273392957</v>
       </c>
       <c r="D8">
-        <v>0.6519884211414251</v>
+        <v>0.5339613948302713</v>
       </c>
       <c r="E8">
-        <v>0.2657546625068861</v>
+        <v>0.2379454830872092</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.8709199148874518</v>
+        <v>0.4863246532735417</v>
       </c>
       <c r="H8">
-        <v>0.9373926674729347</v>
+        <v>0.3976175829256761</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1381719913948203</v>
+        <v>0.1406277064295338</v>
       </c>
       <c r="K8">
-        <v>0.3807144048705595</v>
+        <v>1.046921308318559</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.6466955528673</v>
+        <v>1.810382610071002</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.514862142623798</v>
+        <v>1.335909744131214</v>
       </c>
       <c r="C9">
-        <v>0.05544724859531414</v>
+        <v>0.1854428775664871</v>
       </c>
       <c r="D9">
-        <v>0.6799660935058967</v>
+        <v>0.6728619736031476</v>
       </c>
       <c r="E9">
-        <v>0.2793517597284136</v>
+        <v>0.3031828394262632</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.8631039296232359</v>
+        <v>0.5212975193213936</v>
       </c>
       <c r="H9">
-        <v>0.9234828015470526</v>
+        <v>0.397186234856278</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1470878135779543</v>
+        <v>0.1817098033077258</v>
       </c>
       <c r="K9">
-        <v>0.4874800762892733</v>
+        <v>1.402047630447527</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.601707505546585</v>
+        <v>1.884643759322302</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5889469993342686</v>
+        <v>1.589776630066297</v>
       </c>
       <c r="C10">
-        <v>0.06500188873559409</v>
+        <v>0.2152242891445724</v>
       </c>
       <c r="D10">
-        <v>0.7021160887527174</v>
+        <v>0.7791503712951453</v>
       </c>
       <c r="E10">
-        <v>0.2900239945673064</v>
+        <v>0.3530872187432834</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.8600054058292983</v>
+        <v>0.5541396905284159</v>
       </c>
       <c r="H10">
-        <v>0.9152067845807608</v>
+        <v>0.4009221359487043</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1540161720966324</v>
+        <v>0.2131263233266338</v>
       </c>
       <c r="K10">
-        <v>0.5659104058546518</v>
+        <v>1.664847111570708</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.578277549998489</v>
+        <v>1.962789841217329</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6227044247654874</v>
+        <v>1.706015269422778</v>
       </c>
       <c r="C11">
-        <v>0.06933032602371725</v>
+        <v>0.2288162656449799</v>
       </c>
       <c r="D11">
-        <v>0.7125387684589271</v>
+        <v>0.8286239359721606</v>
       </c>
       <c r="E11">
-        <v>0.2950274491293001</v>
+        <v>0.3763166057206391</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.8591719407251617</v>
+        <v>0.5708809941423425</v>
       </c>
       <c r="H11">
-        <v>0.9118634601834827</v>
+        <v>0.4036116001558696</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1572504753011543</v>
+        <v>0.2277512782492579</v>
       </c>
       <c r="K11">
-        <v>0.6015842650039644</v>
+        <v>1.785049075081673</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.56971178481416</v>
+        <v>2.004219312701736</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6354950468183631</v>
+        <v>1.750161443419898</v>
       </c>
       <c r="C12">
-        <v>0.07096673344251769</v>
+        <v>0.2339716052133696</v>
       </c>
       <c r="D12">
-        <v>0.7165353120042823</v>
+        <v>0.8475375348853333</v>
       </c>
       <c r="E12">
-        <v>0.2969434800708157</v>
+        <v>0.3851975915086712</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8589393167912789</v>
+        <v>0.577501906757135</v>
       </c>
       <c r="H12">
-        <v>0.9106580085614411</v>
+        <v>0.404782321460246</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1584871028853883</v>
+        <v>0.2333431324876329</v>
       </c>
       <c r="K12">
-        <v>0.6150918834852064</v>
+        <v>1.830681346904839</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.566769334098723</v>
+        <v>2.020821488144747</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6327400373494072</v>
+        <v>1.740647683397441</v>
       </c>
       <c r="C13">
-        <v>0.070614424303443</v>
+        <v>0.2328609055837347</v>
       </c>
       <c r="D13">
-        <v>0.7156723764607023</v>
+        <v>0.8434558951950351</v>
       </c>
       <c r="E13">
-        <v>0.2965298804077889</v>
+        <v>0.3832810083204521</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.85898572302753</v>
+        <v>0.576063088176511</v>
       </c>
       <c r="H13">
-        <v>0.910914929492975</v>
+        <v>0.4045232468869813</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.15822024528903</v>
+        <v>0.2321363417345879</v>
       </c>
       <c r="K13">
-        <v>0.6121828442260551</v>
+        <v>1.82084818917653</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.567389641957107</v>
+        <v>2.017204133522512</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6237565717850941</v>
+        <v>1.709644488918087</v>
       </c>
       <c r="C14">
-        <v>0.06946500841161196</v>
+        <v>0.2292402191233549</v>
       </c>
       <c r="D14">
-        <v>0.7128665711684619</v>
+        <v>0.8301762752491584</v>
       </c>
       <c r="E14">
-        <v>0.2951846548518233</v>
+        <v>0.3770455039121572</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.859151138471276</v>
+        <v>0.5714199281114816</v>
       </c>
       <c r="H14">
-        <v>0.9117630726687906</v>
+        <v>0.4037048046591423</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1573519755880284</v>
+        <v>0.2282102126256405</v>
       </c>
       <c r="K14">
-        <v>0.6026955746371527</v>
+        <v>1.788800853715202</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.569463669037162</v>
+        <v>2.005566462330364</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6182548875621876</v>
+        <v>1.690671598005224</v>
       </c>
       <c r="C15">
-        <v>0.06876060668112416</v>
+        <v>0.2270235938763534</v>
       </c>
       <c r="D15">
-        <v>0.7111544030667574</v>
+        <v>0.8220659862229525</v>
       </c>
       <c r="E15">
-        <v>0.2943634422073771</v>
+        <v>0.3732373526270791</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.8592632726491587</v>
+        <v>0.5686131893669142</v>
       </c>
       <c r="H15">
-        <v>0.9122904753790664</v>
+        <v>0.4032236238306552</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1568216806407037</v>
+        <v>0.2258125172008363</v>
       </c>
       <c r="K15">
-        <v>0.5968841597767209</v>
+        <v>1.769186468942451</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.5707733069585</v>
+        <v>1.99855915821189</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5867419435537329</v>
+        <v>1.582197061385614</v>
       </c>
       <c r="C16">
-        <v>0.0647186451820545</v>
+        <v>0.2143370782747098</v>
       </c>
       <c r="D16">
-        <v>0.7014419041567805</v>
+        <v>0.7759412205169269</v>
       </c>
       <c r="E16">
-        <v>0.2896999940895242</v>
+        <v>0.3515804652548837</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.8600714798233042</v>
+        <v>0.5530837232346215</v>
       </c>
       <c r="H16">
-        <v>0.9154337585876675</v>
+        <v>0.4007671252410034</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1538064636664416</v>
+        <v>0.2121777392742672</v>
       </c>
       <c r="K16">
-        <v>0.5635788890835443</v>
+        <v>1.657006486953463</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.578879477774393</v>
+        <v>1.96020636546649</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.56742364067415</v>
+        <v>1.515858682986448</v>
       </c>
       <c r="C17">
-        <v>0.06223435609689432</v>
+        <v>0.2065670101064114</v>
       </c>
       <c r="D17">
-        <v>0.6955722639842179</v>
+        <v>0.7479447826546561</v>
       </c>
       <c r="E17">
-        <v>0.286877153520571</v>
+        <v>0.338435753421038</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.8607149430139174</v>
+        <v>0.5440336060234756</v>
       </c>
       <c r="H17">
-        <v>0.9174700005390406</v>
+        <v>0.3995205278101537</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1519778675987027</v>
+        <v>0.2039025980228644</v>
       </c>
       <c r="K17">
-        <v>0.5431455690624603</v>
+        <v>1.588369051189744</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.584388539464669</v>
+        <v>1.938231177834211</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5563175574378647</v>
+        <v>1.477772169648944</v>
       </c>
       <c r="C18">
-        <v>0.06080376809852339</v>
+        <v>0.2021019097572463</v>
       </c>
       <c r="D18">
-        <v>0.6922288276014683</v>
+        <v>0.7319464896001477</v>
       </c>
       <c r="E18">
-        <v>0.2852675196007795</v>
+        <v>0.3309243706353726</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.8611392592280822</v>
+        <v>0.5389963264034066</v>
       </c>
       <c r="H18">
-        <v>0.9186808653552276</v>
+        <v>0.3988960631608194</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1509338785556906</v>
+        <v>0.1991739687346836</v>
       </c>
       <c r="K18">
-        <v>0.5313924798582832</v>
+        <v>1.548950772340845</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.587754157219592</v>
+        <v>1.926140753287768</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5525581564163531</v>
+        <v>1.464888071369302</v>
       </c>
       <c r="C19">
-        <v>0.06031910787868355</v>
+        <v>0.200590739096242</v>
       </c>
       <c r="D19">
-        <v>0.6911024049067294</v>
+        <v>0.7265471778084986</v>
       </c>
       <c r="E19">
-        <v>0.2847249290286129</v>
+        <v>0.3283893269730669</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.8612922319025529</v>
+        <v>0.5373190094498312</v>
       </c>
       <c r="H19">
-        <v>0.919097657604425</v>
+        <v>0.3987002346686808</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1505817366270463</v>
+        <v>0.1975780944847543</v>
       </c>
       <c r="K19">
-        <v>0.5274130397716874</v>
+        <v>1.535614155255075</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.588927514990701</v>
+        <v>1.922139461878658</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5694795635796197</v>
+        <v>1.522913171148048</v>
       </c>
       <c r="C20">
-        <v>0.062498988519053</v>
+        <v>0.2073937154170267</v>
       </c>
       <c r="D20">
-        <v>0.696193721540368</v>
+        <v>0.750914110625871</v>
       </c>
       <c r="E20">
-        <v>0.2871762021479043</v>
+        <v>0.3398298874224324</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.8606408332821758</v>
+        <v>0.5449794514266557</v>
       </c>
       <c r="H20">
-        <v>0.9172491332820272</v>
+        <v>0.3996435826672098</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1521717205308875</v>
+        <v>0.2047802509282377</v>
       </c>
       <c r="K20">
-        <v>0.5453207753342042</v>
+        <v>1.595669254058237</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.583781704555463</v>
+        <v>1.940513164687019</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6263950369499014</v>
+        <v>1.71874720037863</v>
       </c>
       <c r="C21">
-        <v>0.06980269308864706</v>
+        <v>0.2303034591017052</v>
       </c>
       <c r="D21">
-        <v>0.7136893563681781</v>
+        <v>0.8340718154050251</v>
       </c>
       <c r="E21">
-        <v>0.2955792015802103</v>
+        <v>0.378874656575185</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.8591002983702367</v>
+        <v>0.5727759147981857</v>
       </c>
       <c r="H21">
-        <v>0.9115123081072767</v>
+        <v>0.4039409853166376</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1576066854125173</v>
+        <v>0.2293619063554218</v>
       </c>
       <c r="K21">
-        <v>0.6054822560901698</v>
+        <v>1.798210656917149</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.56884629963389</v>
+        <v>2.008959361215801</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6636355418332869</v>
+        <v>1.847499546569821</v>
       </c>
       <c r="C22">
-        <v>0.07456043775442822</v>
+        <v>0.2453260381635687</v>
       </c>
       <c r="D22">
-        <v>0.7254133996164569</v>
+        <v>0.8894729016051599</v>
       </c>
       <c r="E22">
-        <v>0.3011953650966177</v>
+        <v>0.4048898305752004</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.858577276730486</v>
+        <v>0.5925940094940074</v>
       </c>
       <c r="H22">
-        <v>0.9081161355326373</v>
+        <v>0.4076423511787652</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.161227917787059</v>
+        <v>0.2457434559585465</v>
       </c>
       <c r="K22">
-        <v>0.6447933970635802</v>
+        <v>1.931260675709495</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.560841020833038</v>
+        <v>2.059054281557877</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6437558554640361</v>
+        <v>1.778704831197473</v>
       </c>
       <c r="C23">
-        <v>0.07202260033321295</v>
+        <v>0.2373029514329374</v>
       </c>
       <c r="D23">
-        <v>0.7191295986513637</v>
+        <v>0.8598017926388763</v>
       </c>
       <c r="E23">
-        <v>0.2981865502514225</v>
+        <v>0.3909565170539793</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.8588121043861605</v>
+        <v>0.5818577796558202</v>
       </c>
       <c r="H23">
-        <v>0.9098964261682454</v>
+        <v>0.4055816949689159</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1592888705333309</v>
+        <v>0.2369693769342121</v>
       </c>
       <c r="K23">
-        <v>0.6238132354453114</v>
+        <v>1.860180183753329</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.564952827487957</v>
+        <v>2.03180322516738</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5685500799588112</v>
+        <v>1.519723675687175</v>
       </c>
       <c r="C24">
-        <v>0.06237935547531492</v>
+        <v>0.2070199558171311</v>
       </c>
       <c r="D24">
-        <v>0.6959126637037514</v>
+        <v>0.7495713759107616</v>
       </c>
       <c r="E24">
-        <v>0.2870409609747568</v>
+        <v>0.3391994577809356</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.8606741689093553</v>
+        <v>0.544551320103551</v>
       </c>
       <c r="H24">
-        <v>0.917348862137672</v>
+        <v>0.39958766306016</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1520840568972233</v>
+        <v>0.2043833745881329</v>
       </c>
       <c r="K24">
-        <v>0.5443373822899957</v>
+        <v>1.592368702122684</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.584055436674333</v>
+        <v>1.939479790940453</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4876330648266389</v>
+        <v>1.242958571935532</v>
       </c>
       <c r="C25">
-        <v>0.05191323968800532</v>
+        <v>0.174502456816569</v>
       </c>
       <c r="D25">
-        <v>0.672117184693235</v>
+        <v>0.6346051790640104</v>
       </c>
       <c r="E25">
-        <v>0.2755535730894252</v>
+        <v>0.285218847637033</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.8647547284020476</v>
+        <v>0.5106606436902297</v>
       </c>
       <c r="H25">
-        <v>0.9269043393222063</v>
+        <v>0.3966263011192837</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1446095844466342</v>
+        <v>0.1704000662174607</v>
       </c>
       <c r="K25">
-        <v>0.4585974783697395</v>
+        <v>1.305720320187817</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.61218924813025</v>
+        <v>1.860654047648296</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.040662721572403</v>
+        <v>0.9190168734154724</v>
       </c>
       <c r="C2">
-        <v>0.1506158411011285</v>
+        <v>0.1866204061140024</v>
       </c>
       <c r="D2">
-        <v>0.5527305401955687</v>
+        <v>0.580890477485184</v>
       </c>
       <c r="E2">
-        <v>0.2467639315684664</v>
+        <v>0.268490027488447</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4904142754938192</v>
+        <v>0.4456693885971674</v>
       </c>
       <c r="H2">
-        <v>0.3971264239141163</v>
+        <v>0.0009341926662367328</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0007392943520336814</v>
       </c>
       <c r="J2">
-        <v>0.1461832041737168</v>
+        <v>0.3723563884403021</v>
       </c>
       <c r="K2">
-        <v>1.095850126314588</v>
+        <v>0.3258557936693975</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.165448964145881</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.047850232262931</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.818171563014999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.8280716694217372</v>
+      </c>
+      <c r="Q2">
+        <v>1.671546184467957</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9041582305150371</v>
+        <v>0.8001739879829302</v>
       </c>
       <c r="C3">
-        <v>0.134430987236712</v>
+        <v>0.1636060015793674</v>
       </c>
       <c r="D3">
-        <v>0.4986977760860896</v>
+        <v>0.522685244151603</v>
       </c>
       <c r="E3">
-        <v>0.2213728564600075</v>
+        <v>0.2395761033127783</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4792867397253033</v>
+        <v>0.4281707658373293</v>
       </c>
       <c r="H3">
-        <v>0.3989862895809893</v>
+        <v>0.001992387247168659</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001195394847260278</v>
       </c>
       <c r="J3">
-        <v>0.1301839089050603</v>
+        <v>0.3680082543078882</v>
       </c>
       <c r="K3">
-        <v>0.954032791805929</v>
+        <v>0.324864242639066</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1460584331046988</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.9127727254510489</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.798041331561762</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.8540629056017455</v>
+      </c>
+      <c r="Q3">
+        <v>1.625073494113664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8205369647122041</v>
+        <v>0.7268360709921637</v>
       </c>
       <c r="C4">
-        <v>0.1244857897104339</v>
+        <v>0.1496370624359287</v>
       </c>
       <c r="D4">
-        <v>0.4661550903749969</v>
+        <v>0.4871008969384434</v>
       </c>
       <c r="E4">
-        <v>0.2060722934370887</v>
+        <v>0.2218271297150594</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4736290030284707</v>
+        <v>0.4177473281742792</v>
       </c>
       <c r="H4">
-        <v>0.4008322796320343</v>
+        <v>0.002873974549993941</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001631629604630369</v>
       </c>
       <c r="J4">
-        <v>0.1205367728298441</v>
+        <v>0.3655650047454557</v>
       </c>
       <c r="K4">
-        <v>0.8670628863977754</v>
+        <v>0.3244351647357</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1341436363960256</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.8297459404924155</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.789634346889301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.8705810575930908</v>
+      </c>
+      <c r="Q4">
+        <v>1.597685853843558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7864958577153232</v>
+        <v>0.6961938240785059</v>
       </c>
       <c r="C5">
-        <v>0.1204299107327245</v>
+        <v>0.1443770143358734</v>
       </c>
       <c r="D5">
-        <v>0.4530415076721681</v>
+        <v>0.4726277567484658</v>
       </c>
       <c r="E5">
-        <v>0.1999044019730292</v>
+        <v>0.2145884283521582</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4716041426526445</v>
+        <v>0.4132151796765697</v>
       </c>
       <c r="H5">
-        <v>0.401755093132607</v>
+        <v>0.003290640322278438</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001918874616964938</v>
       </c>
       <c r="J5">
-        <v>0.1166461437296107</v>
+        <v>0.3644382116575287</v>
       </c>
       <c r="K5">
-        <v>0.831635759780994</v>
+        <v>0.3240172197661941</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1292799547021062</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7958894021521985</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.787157818730705</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.8774402496273073</v>
+      </c>
+      <c r="Q5">
+        <v>1.585645326454994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7808451123054851</v>
+        <v>0.6902889603853168</v>
       </c>
       <c r="C6">
-        <v>0.1197562122820557</v>
+        <v>0.1439904151356757</v>
       </c>
       <c r="D6">
-        <v>0.4508726105922278</v>
+        <v>0.4702184737102186</v>
       </c>
       <c r="E6">
-        <v>0.1988841289700289</v>
+        <v>0.2133802948813042</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4712844560881422</v>
+        <v>0.4120257526631974</v>
       </c>
       <c r="H6">
-        <v>0.4019184438057266</v>
+        <v>0.003365011780631866</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.002064002071231918</v>
       </c>
       <c r="J6">
-        <v>0.1160024582479764</v>
+        <v>0.3640265637315423</v>
       </c>
       <c r="K6">
-        <v>0.8257535830575193</v>
+        <v>0.3236000850849976</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1284666419015821</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7902718371657045</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.786802671262976</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.8785774000904762</v>
+      </c>
+      <c r="Q6">
+        <v>1.582249391244403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8200777487751623</v>
+        <v>0.7242004133299247</v>
       </c>
       <c r="C7">
-        <v>0.124431104921868</v>
+        <v>0.1508917921876218</v>
       </c>
       <c r="D7">
-        <v>0.4659776522419747</v>
+        <v>0.4868839977758626</v>
       </c>
       <c r="E7">
-        <v>0.2059888461731418</v>
+        <v>0.2217131563925321</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4736005772805427</v>
+        <v>0.4164806074203113</v>
       </c>
       <c r="H7">
-        <v>0.4008440427503999</v>
+        <v>0.002883983032231918</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001879911442927984</v>
       </c>
       <c r="J7">
-        <v>0.1204841426022938</v>
+        <v>0.3649282535652461</v>
       </c>
       <c r="K7">
-        <v>0.8665850644009367</v>
+        <v>0.3234734044257479</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1340632801886485</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.829305504149346</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.789597160876426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.8706571606453082</v>
+      </c>
+      <c r="Q7">
+        <v>1.593665733555298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9935476128322591</v>
+        <v>0.8751442275510328</v>
       </c>
       <c r="C8">
-        <v>0.1450361273392957</v>
+        <v>0.1804178251248914</v>
       </c>
       <c r="D8">
-        <v>0.5339613948302713</v>
+        <v>0.5607589267603714</v>
       </c>
       <c r="E8">
-        <v>0.2379454830872092</v>
+        <v>0.2584973439812046</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4863246532735417</v>
+        <v>0.4379739014938551</v>
       </c>
       <c r="H8">
-        <v>0.3976175829256761</v>
+        <v>0.001253266979721834</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001156747206906061</v>
       </c>
       <c r="J8">
-        <v>0.1406277064295338</v>
+        <v>0.3699911911005813</v>
       </c>
       <c r="K8">
-        <v>1.046921308318559</v>
+        <v>0.3242169501296495</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.158744510575147</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.001309220309508</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.810382610071002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.8369461639249121</v>
+      </c>
+      <c r="Q8">
+        <v>1.650187050355697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.335909744131214</v>
+        <v>1.172329842267231</v>
       </c>
       <c r="C9">
-        <v>0.1854428775664871</v>
+        <v>0.2373640676283344</v>
       </c>
       <c r="D9">
-        <v>0.6728619736031476</v>
+        <v>0.7070990107888804</v>
       </c>
       <c r="E9">
-        <v>0.3031828394262632</v>
+        <v>0.330789321805419</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5212975193213936</v>
+        <v>0.4850233103965422</v>
       </c>
       <c r="H9">
-        <v>0.397186234856278</v>
+        <v>4.157320224740246E-06</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0006865394950805737</v>
       </c>
       <c r="J9">
-        <v>0.1817098033077258</v>
+        <v>0.3829072568373562</v>
       </c>
       <c r="K9">
-        <v>1.402047630447527</v>
+        <v>0.3288729463862055</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2071772718664491</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.338142366459323</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.884643759322302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.775372337881377</v>
+      </c>
+      <c r="Q9">
+        <v>1.777611977332555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.589776630066297</v>
+        <v>1.383790535778729</v>
       </c>
       <c r="C10">
-        <v>0.2152242891445724</v>
+        <v>0.2786013224315695</v>
       </c>
       <c r="D10">
-        <v>0.7791503712951453</v>
+        <v>0.799354231379823</v>
       </c>
       <c r="E10">
-        <v>0.3530872187432834</v>
+        <v>0.3708434613683025</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5541396905284159</v>
+        <v>0.5144391496903751</v>
       </c>
       <c r="H10">
-        <v>0.4009221359487043</v>
+        <v>0.000565464426231177</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.00136372500512838</v>
       </c>
       <c r="J10">
-        <v>0.2131263233266338</v>
+        <v>0.3901351311440635</v>
       </c>
       <c r="K10">
-        <v>1.664847111570708</v>
+        <v>0.3298869687026098</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2302254902271699</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.578793999794101</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.962789841217329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.7341184260112232</v>
+      </c>
+      <c r="Q10">
+        <v>1.85553461604016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.706015269422778</v>
+        <v>1.439457967040624</v>
       </c>
       <c r="C11">
-        <v>0.2288162656449799</v>
+        <v>0.2791296717603018</v>
       </c>
       <c r="D11">
-        <v>0.8286239359721606</v>
+        <v>0.7032494368852156</v>
       </c>
       <c r="E11">
-        <v>0.3763166057206391</v>
+        <v>0.2822987714754674</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5708809941423425</v>
+        <v>0.4708544191777833</v>
       </c>
       <c r="H11">
-        <v>0.4036116001558696</v>
+        <v>0.01906801632348021</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002091119579358924</v>
       </c>
       <c r="J11">
-        <v>0.2277512782492579</v>
+        <v>0.3651514484938616</v>
       </c>
       <c r="K11">
-        <v>1.785049075081673</v>
+        <v>0.3041380078862908</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1449742289384233</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.627319508654097</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.004219312701736</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.7274241512795498</v>
+      </c>
+      <c r="Q11">
+        <v>1.710974524529547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.750161443419898</v>
+        <v>1.444839465535267</v>
       </c>
       <c r="C12">
-        <v>0.2339716052133696</v>
+        <v>0.2687046919844818</v>
       </c>
       <c r="D12">
-        <v>0.8475375348853333</v>
+        <v>0.6083902039636939</v>
       </c>
       <c r="E12">
-        <v>0.3851975915086712</v>
+        <v>0.2104504084491481</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.577501906757135</v>
+        <v>0.4308206478961267</v>
       </c>
       <c r="H12">
-        <v>0.404782321460246</v>
+        <v>0.05762518210106293</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002112740369514476</v>
       </c>
       <c r="J12">
-        <v>0.2333431324876329</v>
+        <v>0.3438514201888268</v>
       </c>
       <c r="K12">
-        <v>1.830681346904839</v>
+        <v>0.2842968110411732</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.0871848691740098</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.616507549283625</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.020821488144747</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.7337650139030245</v>
+      </c>
+      <c r="Q12">
+        <v>1.581548645060479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.740647683397441</v>
+        <v>1.408270908994524</v>
       </c>
       <c r="C13">
-        <v>0.2328609055837347</v>
+        <v>0.2514439106489021</v>
       </c>
       <c r="D13">
-        <v>0.8434558951950351</v>
+        <v>0.5094841613252186</v>
       </c>
       <c r="E13">
-        <v>0.3832810083204521</v>
+        <v>0.1475851300880215</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.576063088176511</v>
+        <v>0.3893282048156195</v>
       </c>
       <c r="H13">
-        <v>0.4045232468869813</v>
+        <v>0.1132263988583446</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001934515973969653</v>
       </c>
       <c r="J13">
-        <v>0.2321363417345879</v>
+        <v>0.3231534179076334</v>
       </c>
       <c r="K13">
-        <v>1.82084818917653</v>
+        <v>0.2663124449264629</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.04724669597357689</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.559535584288938</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.017204133522512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.7498712854514551</v>
+      </c>
+      <c r="Q13">
+        <v>1.450210464833759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.709644488918087</v>
+        <v>1.363139734099832</v>
       </c>
       <c r="C14">
-        <v>0.2292402191233549</v>
+        <v>0.2367817261053204</v>
       </c>
       <c r="D14">
-        <v>0.8301762752491584</v>
+        <v>0.4398403490810097</v>
       </c>
       <c r="E14">
-        <v>0.3770455039121572</v>
+        <v>0.1095229444159571</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5714199281114816</v>
+        <v>0.3597402375935133</v>
       </c>
       <c r="H14">
-        <v>0.4037048046591423</v>
+        <v>0.162481955912142</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001815394066536413</v>
       </c>
       <c r="J14">
-        <v>0.2282102126256405</v>
+        <v>0.3089539863727779</v>
       </c>
       <c r="K14">
-        <v>1.788800853715202</v>
+        <v>0.2545164160666538</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.03006418689670021</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.499033455217329</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.005566462330364</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.765874683230571</v>
+      </c>
+      <c r="Q14">
+        <v>1.357690457860315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.690671598005224</v>
+        <v>1.342440444370368</v>
       </c>
       <c r="C15">
-        <v>0.2270235938763534</v>
+        <v>0.2322687575570512</v>
       </c>
       <c r="D15">
-        <v>0.8220659862229525</v>
+        <v>0.4214348917349753</v>
       </c>
       <c r="E15">
-        <v>0.3732373526270791</v>
+        <v>0.1007864010456316</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5686131893669142</v>
+        <v>0.3517660566407912</v>
       </c>
       <c r="H15">
-        <v>0.4032236238306552</v>
+        <v>0.1749602519174402</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001862517517438711</v>
       </c>
       <c r="J15">
-        <v>0.2258125172008363</v>
+        <v>0.3054084650698456</v>
       </c>
       <c r="K15">
-        <v>1.769186468942451</v>
+        <v>0.2516963588259529</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.02724578987168425</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.474680518734118</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.99855915821189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.7715374694519994</v>
+      </c>
+      <c r="Q15">
+        <v>1.333327915237817</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.582197061385614</v>
+        <v>1.258359790515783</v>
       </c>
       <c r="C16">
-        <v>0.2143370782747098</v>
+        <v>0.219205454314789</v>
       </c>
       <c r="D16">
-        <v>0.7759412205169269</v>
+        <v>0.4044289486745214</v>
       </c>
       <c r="E16">
-        <v>0.3515804652548837</v>
+        <v>0.0982200347352169</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5530837232346215</v>
+        <v>0.3472666917181968</v>
       </c>
       <c r="H16">
-        <v>0.4007671252410034</v>
+        <v>0.162111313820958</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001714446507111944</v>
       </c>
       <c r="J16">
-        <v>0.2121777392742672</v>
+        <v>0.3062025928891643</v>
       </c>
       <c r="K16">
-        <v>1.657006486953463</v>
+        <v>0.254346337466739</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.02681622666799299</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.384047576522676</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.96020636546649</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.7838993007004831</v>
+      </c>
+      <c r="Q16">
+        <v>1.325275181067866</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.515858682986448</v>
+        <v>1.217743849337637</v>
       </c>
       <c r="C17">
-        <v>0.2065670101064114</v>
+        <v>0.2169814018985363</v>
       </c>
       <c r="D17">
-        <v>0.7479447826546561</v>
+        <v>0.42743176226071</v>
       </c>
       <c r="E17">
-        <v>0.338435753421038</v>
+        <v>0.1151323453087834</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5440336060234756</v>
+        <v>0.3593391589747057</v>
       </c>
       <c r="H17">
-        <v>0.3995205278101537</v>
+        <v>0.1242958528375624</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.00169469733447869</v>
       </c>
       <c r="J17">
-        <v>0.2039025980228644</v>
+        <v>0.3143053551168578</v>
       </c>
       <c r="K17">
-        <v>1.588369051189744</v>
+        <v>0.2625695361282609</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.03368762512596923</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.346606594614883</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.938231177834211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.7850441832077166</v>
+      </c>
+      <c r="Q17">
+        <v>1.36773213119919</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.477772169648944</v>
+        <v>1.211561947278</v>
       </c>
       <c r="C18">
-        <v>0.2021019097572463</v>
+        <v>0.2228308268199015</v>
       </c>
       <c r="D18">
-        <v>0.7319464896001477</v>
+        <v>0.490729202969419</v>
       </c>
       <c r="E18">
-        <v>0.3309243706353726</v>
+        <v>0.1565300599335693</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5389963264034066</v>
+        <v>0.3885540828223526</v>
       </c>
       <c r="H18">
-        <v>0.3988960631608194</v>
+        <v>0.07144470364810473</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001462884763758332</v>
       </c>
       <c r="J18">
-        <v>0.1991739687346836</v>
+        <v>0.3302953980224927</v>
       </c>
       <c r="K18">
-        <v>1.548950772340845</v>
+        <v>0.2775269813231702</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.05699815470821079</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.350346863601658</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.926140753287768</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.7777791987951375</v>
+      </c>
+      <c r="Q18">
+        <v>1.463102328178749</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.464888071369302</v>
+        <v>1.22917235370042</v>
       </c>
       <c r="C19">
-        <v>0.200590739096242</v>
+        <v>0.2373956371257435</v>
       </c>
       <c r="D19">
-        <v>0.7265471778084986</v>
+        <v>0.5872858879648675</v>
       </c>
       <c r="E19">
-        <v>0.3283893269730669</v>
+        <v>0.2235932446262225</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5373190094498312</v>
+        <v>0.4289020422896641</v>
       </c>
       <c r="H19">
-        <v>0.3987002346686808</v>
+        <v>0.02618560160256322</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001603388791874494</v>
       </c>
       <c r="J19">
-        <v>0.1975780944847543</v>
+        <v>0.3510331340025914</v>
       </c>
       <c r="K19">
-        <v>1.535614155255075</v>
+        <v>0.2960735602704503</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1060152721752061</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.386968818277495</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.922139461878658</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.7673303324372753</v>
+      </c>
+      <c r="Q19">
+        <v>1.592066899249602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.522913171148048</v>
+        <v>1.321075316825699</v>
       </c>
       <c r="C20">
-        <v>0.2073937154170267</v>
+        <v>0.2718510194476664</v>
       </c>
       <c r="D20">
-        <v>0.750914110625871</v>
+        <v>0.7743114089685719</v>
       </c>
       <c r="E20">
-        <v>0.3398298874224324</v>
+        <v>0.3597156529605243</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5449794514266557</v>
+        <v>0.5025834679924372</v>
       </c>
       <c r="H20">
-        <v>0.3996435826672098</v>
+        <v>0.0003061300430555747</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001876966434332772</v>
       </c>
       <c r="J20">
-        <v>0.2047802509282377</v>
+        <v>0.386115910564186</v>
       </c>
       <c r="K20">
-        <v>1.595669254058237</v>
+        <v>0.3265162989959016</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2235898524589572</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.515337540768712</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.940513164687019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.7451240451020116</v>
+      </c>
+      <c r="Q20">
+        <v>1.821874932103469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.71874720037863</v>
+        <v>1.490755357470192</v>
       </c>
       <c r="C21">
-        <v>0.2303034591017052</v>
+        <v>0.3067058808256888</v>
       </c>
       <c r="D21">
-        <v>0.8340718154050251</v>
+        <v>0.8709865375581387</v>
       </c>
       <c r="E21">
-        <v>0.378874656575185</v>
+        <v>0.411086576846678</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5727759147981857</v>
+        <v>0.5367622538572476</v>
       </c>
       <c r="H21">
-        <v>0.4039409853166376</v>
+        <v>0.001030177501238017</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.002579719458473129</v>
       </c>
       <c r="J21">
-        <v>0.2293619063554218</v>
+        <v>0.3975171873275372</v>
       </c>
       <c r="K21">
-        <v>1.798210656917149</v>
+        <v>0.3328597606832098</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2609092120868155</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.71087598531696</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.008959361215801</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.7131093431151694</v>
+      </c>
+      <c r="Q21">
+        <v>1.918530676286935</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.847499546569821</v>
+        <v>1.602287112303202</v>
       </c>
       <c r="C22">
-        <v>0.2453260381635687</v>
+        <v>0.3267627802212587</v>
       </c>
       <c r="D22">
-        <v>0.8894729016051599</v>
+        <v>0.9261570234936585</v>
       </c>
       <c r="E22">
-        <v>0.4048898305752004</v>
+        <v>0.438014783925496</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5925940094940074</v>
+        <v>0.5577914375070065</v>
       </c>
       <c r="H22">
-        <v>0.4076423511787652</v>
+        <v>0.001859984904100553</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.002934563582019045</v>
       </c>
       <c r="J22">
-        <v>0.2457434559585465</v>
+        <v>0.4043861569638807</v>
       </c>
       <c r="K22">
-        <v>1.931260675709495</v>
+        <v>0.3369318819010658</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2789390989968865</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.835293745962133</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.059054281557877</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.6930851218602001</v>
+      </c>
+      <c r="Q22">
+        <v>1.977698088524335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.778704831197473</v>
+        <v>1.545494482164031</v>
       </c>
       <c r="C23">
-        <v>0.2373029514329374</v>
+        <v>0.314409697080464</v>
       </c>
       <c r="D23">
-        <v>0.8598017926388763</v>
+        <v>0.896703822656832</v>
       </c>
       <c r="E23">
-        <v>0.3909565170539793</v>
+        <v>0.4236516758192295</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5818577796558202</v>
+        <v>0.5479335172573485</v>
       </c>
       <c r="H23">
-        <v>0.4055816949689159</v>
+        <v>0.001391508354638304</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.002438060685008736</v>
       </c>
       <c r="J23">
-        <v>0.2369693769342121</v>
+        <v>0.4014108018910179</v>
       </c>
       <c r="K23">
-        <v>1.860180183753329</v>
+        <v>0.3358371467858312</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2693277374253142</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.768865374350753</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.03180322516738</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.7035533716217408</v>
+      </c>
+      <c r="Q23">
+        <v>1.950461451031686</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.519723675687175</v>
+        <v>1.325719094531394</v>
       </c>
       <c r="C24">
-        <v>0.2070199558171311</v>
+        <v>0.2706927123294918</v>
       </c>
       <c r="D24">
-        <v>0.7495713759107616</v>
+        <v>0.7857704593727703</v>
       </c>
       <c r="E24">
-        <v>0.3391994577809356</v>
+        <v>0.3694045360650691</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.544551320103551</v>
+        <v>0.5093513417682374</v>
       </c>
       <c r="H24">
-        <v>0.39958766306016</v>
+        <v>0.0002153053530478122</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001405960780733295</v>
       </c>
       <c r="J24">
-        <v>0.2043833745881329</v>
+        <v>0.3895923505545369</v>
       </c>
       <c r="K24">
-        <v>1.592368702122684</v>
+        <v>0.330442533397548</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.233019212980679</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.517621547116676</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.939479790940453</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.7447312912817345</v>
+      </c>
+      <c r="Q24">
+        <v>1.843500314782034</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.242958571935532</v>
+        <v>1.088120534955948</v>
       </c>
       <c r="C25">
-        <v>0.174502456816569</v>
+        <v>0.2242293237604258</v>
       </c>
       <c r="D25">
-        <v>0.6346051790640104</v>
+        <v>0.6672877299666027</v>
       </c>
       <c r="E25">
-        <v>0.285218847637033</v>
+        <v>0.3111761387658731</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5106606436902297</v>
+        <v>0.4698010720762937</v>
       </c>
       <c r="H25">
-        <v>0.3966263011192837</v>
+        <v>0.0001179662393251402</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001078023140299145</v>
       </c>
       <c r="J25">
-        <v>0.1704000662174607</v>
+        <v>0.3780893484384507</v>
       </c>
       <c r="K25">
-        <v>1.305720320187817</v>
+        <v>0.325737348348472</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1940361181373333</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.247046599525589</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.860654047648296</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.791647350902247</v>
+      </c>
+      <c r="Q25">
+        <v>1.735086967522591</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9190168734154724</v>
+        <v>0.883328403406523</v>
       </c>
       <c r="C2">
-        <v>0.1866204061140024</v>
+        <v>0.2047778916411289</v>
       </c>
       <c r="D2">
-        <v>0.580890477485184</v>
+        <v>0.5819998837123137</v>
       </c>
       <c r="E2">
-        <v>0.268490027488447</v>
+        <v>0.2693336022726811</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4456693885971674</v>
+        <v>0.4024976016380819</v>
       </c>
       <c r="H2">
-        <v>0.0009341926662367328</v>
+        <v>0.0008089091021725725</v>
       </c>
       <c r="I2">
-        <v>0.0007392943520336814</v>
+        <v>0.0006370051111597164</v>
       </c>
       <c r="J2">
-        <v>0.3723563884403021</v>
+        <v>0.3854303262021048</v>
       </c>
       <c r="K2">
-        <v>0.3258557936693975</v>
+        <v>0.2983018681007152</v>
       </c>
       <c r="L2">
-        <v>0.165448964145881</v>
+        <v>0.1548441909959735</v>
       </c>
       <c r="M2">
-        <v>1.047850232262931</v>
+        <v>0.07699961898220131</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.166234942017141</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.049671759823269</v>
       </c>
       <c r="P2">
-        <v>0.8280716694217372</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.671546184467957</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.812369385667381</v>
+      </c>
+      <c r="S2">
+        <v>1.582339056245914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8001739879829302</v>
+        <v>0.7727794253108584</v>
       </c>
       <c r="C3">
-        <v>0.1636060015793674</v>
+        <v>0.1765155630302075</v>
       </c>
       <c r="D3">
-        <v>0.522685244151603</v>
+        <v>0.5240402528031041</v>
       </c>
       <c r="E3">
-        <v>0.2395761033127783</v>
+        <v>0.2406062982778892</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4281707658373293</v>
+        <v>0.3892885083741291</v>
       </c>
       <c r="H3">
-        <v>0.001992387247168659</v>
+        <v>0.001762418031774793</v>
       </c>
       <c r="I3">
-        <v>0.001195394847260278</v>
+        <v>0.0008872218383162433</v>
       </c>
       <c r="J3">
-        <v>0.3680082543078882</v>
+        <v>0.3798313637515491</v>
       </c>
       <c r="K3">
-        <v>0.324864242639066</v>
+        <v>0.2991386010109345</v>
       </c>
       <c r="L3">
-        <v>0.1460584331046988</v>
+        <v>0.1591400128209237</v>
       </c>
       <c r="M3">
-        <v>0.9127727254510489</v>
+        <v>0.07474793424111859</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1470029700502096</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9146596927997734</v>
       </c>
       <c r="P3">
-        <v>0.8540629056017455</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.625073494113664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.8353635037526939</v>
+      </c>
+      <c r="S3">
+        <v>1.545207266444635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7268360709921637</v>
+        <v>0.7043728034782362</v>
       </c>
       <c r="C4">
-        <v>0.1496370624359287</v>
+        <v>0.1594389236878584</v>
       </c>
       <c r="D4">
-        <v>0.4871008969384434</v>
+        <v>0.4886057717894516</v>
       </c>
       <c r="E4">
-        <v>0.2218271297150594</v>
+        <v>0.2229705479775674</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4177473281742792</v>
+        <v>0.3815004644272122</v>
       </c>
       <c r="H4">
-        <v>0.002873974549993941</v>
+        <v>0.0025622513135104</v>
       </c>
       <c r="I4">
-        <v>0.001631629604630369</v>
+        <v>0.001173542843859732</v>
       </c>
       <c r="J4">
-        <v>0.3655650047454557</v>
+        <v>0.3764509993558747</v>
       </c>
       <c r="K4">
-        <v>0.3244351647357</v>
+        <v>0.2997614553368102</v>
       </c>
       <c r="L4">
-        <v>0.1341436363960256</v>
+        <v>0.1618631573675771</v>
       </c>
       <c r="M4">
-        <v>0.8297459404924155</v>
+        <v>0.0738671102756232</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1351803911468323</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8316398633108122</v>
       </c>
       <c r="P4">
-        <v>0.8705810575930908</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.597685853843558</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8500631477429259</v>
+      </c>
+      <c r="S4">
+        <v>1.523244056677498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6961938240785059</v>
+        <v>0.6757108056212076</v>
       </c>
       <c r="C5">
-        <v>0.1443770143358734</v>
+        <v>0.1529663746337917</v>
       </c>
       <c r="D5">
-        <v>0.4726277567484658</v>
+        <v>0.4741939304023504</v>
       </c>
       <c r="E5">
-        <v>0.2145884283521582</v>
+        <v>0.2157779262285757</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4132151796765697</v>
+        <v>0.3780564103113591</v>
       </c>
       <c r="H5">
-        <v>0.003290640322278438</v>
+        <v>0.002941286127149279</v>
       </c>
       <c r="I5">
-        <v>0.001918874616964938</v>
+        <v>0.001406182820206325</v>
       </c>
       <c r="J5">
-        <v>0.3644382116575287</v>
+        <v>0.3748976798729089</v>
       </c>
       <c r="K5">
-        <v>0.3240172197661941</v>
+        <v>0.2997702885180829</v>
       </c>
       <c r="L5">
-        <v>0.1292799547021062</v>
+        <v>0.1628531559529556</v>
       </c>
       <c r="M5">
-        <v>0.7958894021521985</v>
+        <v>0.07356966303856005</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1303532468784923</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.797779051306577</v>
       </c>
       <c r="P5">
-        <v>0.8774402496273073</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.585645326454994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.8562105296414195</v>
+      </c>
+      <c r="S5">
+        <v>1.513366975728857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6902889603853168</v>
+        <v>0.6701451320561773</v>
       </c>
       <c r="C6">
-        <v>0.1439904151356757</v>
+        <v>0.1524116993029736</v>
       </c>
       <c r="D6">
-        <v>0.4702184737102186</v>
+        <v>0.471795081885432</v>
       </c>
       <c r="E6">
-        <v>0.2133802948813042</v>
+        <v>0.2145775956563369</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4120257526631974</v>
+        <v>0.3770651235655365</v>
       </c>
       <c r="H6">
-        <v>0.003365011780631866</v>
+        <v>0.003008997987734907</v>
       </c>
       <c r="I6">
-        <v>0.002064002071231918</v>
+        <v>0.001558238331694106</v>
       </c>
       <c r="J6">
-        <v>0.3640265637315423</v>
+        <v>0.3744088329657487</v>
       </c>
       <c r="K6">
-        <v>0.3236000850849976</v>
+        <v>0.2994421549644244</v>
       </c>
       <c r="L6">
-        <v>0.1284666419015821</v>
+        <v>0.1628470705840499</v>
       </c>
       <c r="M6">
-        <v>0.7902718371657045</v>
+        <v>0.0734489576212809</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1295460425741126</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.792160745579821</v>
       </c>
       <c r="P6">
-        <v>0.8785774000904762</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.582249391244403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.8572590651895631</v>
+      </c>
+      <c r="S6">
+        <v>1.510361822065647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7242004133299247</v>
+        <v>0.7014104505319381</v>
       </c>
       <c r="C7">
-        <v>0.1508917921876218</v>
+        <v>0.1604261538524412</v>
       </c>
       <c r="D7">
-        <v>0.4868839977758626</v>
+        <v>0.4883734725641204</v>
       </c>
       <c r="E7">
-        <v>0.2217131563925321</v>
+        <v>0.2228447665845863</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4164806074203113</v>
+        <v>0.3829868735358559</v>
       </c>
       <c r="H7">
-        <v>0.002883983032231918</v>
+        <v>0.002574758986400583</v>
       </c>
       <c r="I7">
-        <v>0.001879911442927984</v>
+        <v>0.001465284872667283</v>
       </c>
       <c r="J7">
-        <v>0.3649282535652461</v>
+        <v>0.3717687886113268</v>
       </c>
       <c r="K7">
-        <v>0.3234734044257479</v>
+        <v>0.2985318360488591</v>
       </c>
       <c r="L7">
-        <v>0.1340632801886485</v>
+        <v>0.161255249595623</v>
       </c>
       <c r="M7">
-        <v>0.829305504149346</v>
+        <v>0.07355276334296867</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1350891314179776</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8303931869496353</v>
       </c>
       <c r="P7">
-        <v>0.8706571606453082</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.593665733555298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8502628582047063</v>
+      </c>
+      <c r="S7">
+        <v>1.51696288326788</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8751442275510328</v>
+        <v>0.8410994590492749</v>
       </c>
       <c r="C8">
-        <v>0.1804178251248914</v>
+        <v>0.1957243242454894</v>
       </c>
       <c r="D8">
-        <v>0.5607589267603714</v>
+        <v>0.5619007536077731</v>
       </c>
       <c r="E8">
-        <v>0.2584973439812046</v>
+        <v>0.2593654979001272</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4379739014938551</v>
+        <v>0.4053644029071677</v>
       </c>
       <c r="H8">
-        <v>0.001253266979721834</v>
+        <v>0.001102108008655733</v>
       </c>
       <c r="I8">
-        <v>0.001156747206906061</v>
+        <v>0.001045011856829703</v>
       </c>
       <c r="J8">
-        <v>0.3699911911005813</v>
+        <v>0.3695213420006738</v>
       </c>
       <c r="K8">
-        <v>0.3242169501296495</v>
+        <v>0.2963193353857356</v>
       </c>
       <c r="L8">
-        <v>0.158744510575147</v>
+        <v>0.1552739371692056</v>
       </c>
       <c r="M8">
-        <v>1.001309220309508</v>
+        <v>0.07545019536993536</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1595489539496455</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.000452236113262</v>
       </c>
       <c r="P8">
-        <v>0.8369461639249121</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.650187050355697</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8205810156368507</v>
+      </c>
+      <c r="S8">
+        <v>1.556518241957107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.172329842267231</v>
+        <v>1.116222284180168</v>
       </c>
       <c r="C9">
-        <v>0.2373640676283344</v>
+        <v>0.2659713582523864</v>
       </c>
       <c r="D9">
-        <v>0.7070990107888804</v>
+        <v>0.7075980833775475</v>
       </c>
       <c r="E9">
-        <v>0.330789321805419</v>
+        <v>0.3311678272291445</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4850233103965422</v>
+        <v>0.4442085025859228</v>
       </c>
       <c r="H9">
-        <v>4.157320224740246E-06</v>
+        <v>1.280846322337936E-06</v>
       </c>
       <c r="I9">
-        <v>0.0006865394950805737</v>
+        <v>0.0008907761345531284</v>
       </c>
       <c r="J9">
-        <v>0.3829072568373562</v>
+        <v>0.3809735155347624</v>
       </c>
       <c r="K9">
-        <v>0.3288729463862055</v>
+        <v>0.2956748466917709</v>
       </c>
       <c r="L9">
-        <v>0.2071772718664491</v>
+        <v>0.1455447012330175</v>
       </c>
       <c r="M9">
-        <v>1.338142366459323</v>
+        <v>0.08395933945454814</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2075399487594467</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.336090506934681</v>
       </c>
       <c r="P9">
-        <v>0.775372337881377</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.777611977332555</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.7667150194489558</v>
+      </c>
+      <c r="S9">
+        <v>1.656567800260746</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.383790535778729</v>
+        <v>1.309067673387148</v>
       </c>
       <c r="C10">
-        <v>0.2786013224315695</v>
+        <v>0.3149000627044529</v>
       </c>
       <c r="D10">
-        <v>0.799354231379823</v>
+        <v>0.7992778548716331</v>
       </c>
       <c r="E10">
-        <v>0.3708434613683025</v>
+        <v>0.3707858915712805</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5144391496903751</v>
+        <v>0.4845102653139719</v>
       </c>
       <c r="H10">
-        <v>0.000565464426231177</v>
+        <v>0.0005602630427961053</v>
       </c>
       <c r="I10">
-        <v>0.00136372500512838</v>
+        <v>0.001671753077310711</v>
       </c>
       <c r="J10">
-        <v>0.3901351311440635</v>
+        <v>0.3649015783959726</v>
       </c>
       <c r="K10">
-        <v>0.3298869687026098</v>
+        <v>0.2912028166673259</v>
       </c>
       <c r="L10">
-        <v>0.2302254902271699</v>
+        <v>0.1371742376091412</v>
       </c>
       <c r="M10">
-        <v>1.578793999794101</v>
+        <v>0.0908080772202382</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2301693489508096</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.570731767303386</v>
       </c>
       <c r="P10">
-        <v>0.7341184260112232</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.85553461604016</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.7325577289242347</v>
+      </c>
+      <c r="S10">
+        <v>1.701230164148853</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.439457967040624</v>
+        <v>1.359116420334715</v>
       </c>
       <c r="C11">
-        <v>0.2791296717603018</v>
+        <v>0.3101911832679605</v>
       </c>
       <c r="D11">
-        <v>0.7032494368852156</v>
+        <v>0.7029125854616609</v>
       </c>
       <c r="E11">
-        <v>0.2822987714754674</v>
+        <v>0.2820495647482275</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4708544191777833</v>
+        <v>0.4773837559743441</v>
       </c>
       <c r="H11">
-        <v>0.01906801632348021</v>
+        <v>0.01904563435503803</v>
       </c>
       <c r="I11">
-        <v>0.002091119579358924</v>
+        <v>0.002485683468183453</v>
       </c>
       <c r="J11">
-        <v>0.3651514484938616</v>
+        <v>0.3043206278010757</v>
       </c>
       <c r="K11">
-        <v>0.3041380078862908</v>
+        <v>0.2650864722245636</v>
       </c>
       <c r="L11">
-        <v>0.1449742289384233</v>
+        <v>0.1252760218761058</v>
       </c>
       <c r="M11">
-        <v>1.627319508654097</v>
+        <v>0.08417197424475731</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1447311779447915</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.608227707330713</v>
       </c>
       <c r="P11">
-        <v>0.7274241512795498</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.710974524529547</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.735910669823852</v>
+      </c>
+      <c r="S11">
+        <v>1.539429136841051</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.444839465535267</v>
+        <v>1.365225645744374</v>
       </c>
       <c r="C12">
-        <v>0.2687046919844818</v>
+        <v>0.294932216668542</v>
       </c>
       <c r="D12">
-        <v>0.6083902039636939</v>
+        <v>0.6080150440290595</v>
       </c>
       <c r="E12">
-        <v>0.2104504084491481</v>
+        <v>0.2101764388298051</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4308206478961267</v>
+        <v>0.4539334081217987</v>
       </c>
       <c r="H12">
-        <v>0.05762518210106293</v>
+        <v>0.05760361798910196</v>
       </c>
       <c r="I12">
-        <v>0.002112740369514476</v>
+        <v>0.002498468452075464</v>
       </c>
       <c r="J12">
-        <v>0.3438514201888268</v>
+        <v>0.2743984842529201</v>
       </c>
       <c r="K12">
-        <v>0.2842968110411732</v>
+        <v>0.2472344424489243</v>
       </c>
       <c r="L12">
-        <v>0.0871848691740098</v>
+        <v>0.1183701299613542</v>
       </c>
       <c r="M12">
-        <v>1.616507549283625</v>
+        <v>0.07806072344491355</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.08691737612639372</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.5924881772346</v>
       </c>
       <c r="P12">
-        <v>0.7337650139030245</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.581548645060479</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.7488134549925434</v>
+      </c>
+      <c r="S12">
+        <v>1.412025066716296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.408270908994524</v>
+        <v>1.33548366744435</v>
       </c>
       <c r="C13">
-        <v>0.2514439106489021</v>
+        <v>0.2738680981567256</v>
       </c>
       <c r="D13">
-        <v>0.5094841613252186</v>
+        <v>0.5092265361287502</v>
       </c>
       <c r="E13">
-        <v>0.1475851300880215</v>
+        <v>0.1473986872848201</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.3893282048156195</v>
+        <v>0.4087945012074101</v>
       </c>
       <c r="H13">
-        <v>0.1132263988583446</v>
+        <v>0.1132163666799073</v>
       </c>
       <c r="I13">
-        <v>0.001934515973969653</v>
+        <v>0.002319907298362622</v>
       </c>
       <c r="J13">
-        <v>0.3231534179076334</v>
+        <v>0.2650781465795973</v>
       </c>
       <c r="K13">
-        <v>0.2663124449264629</v>
+        <v>0.2336049672235347</v>
       </c>
       <c r="L13">
-        <v>0.04724669597357689</v>
+        <v>0.1140436642777498</v>
       </c>
       <c r="M13">
-        <v>1.559535584288938</v>
+        <v>0.07187420008083478</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.04706442697226976</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.537118958704298</v>
       </c>
       <c r="P13">
-        <v>0.7498712854514551</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.450210464833759</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.7675735724489172</v>
+      </c>
+      <c r="S13">
+        <v>1.301015920881568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.363139734099832</v>
+        <v>1.297788840368924</v>
       </c>
       <c r="C14">
-        <v>0.2367817261053204</v>
+        <v>0.2569613948370915</v>
       </c>
       <c r="D14">
-        <v>0.4398403490810097</v>
+        <v>0.439715879386597</v>
       </c>
       <c r="E14">
-        <v>0.1095229444159571</v>
+        <v>0.1094332271003005</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.3597402375935133</v>
+        <v>0.3691458085217079</v>
       </c>
       <c r="H14">
-        <v>0.162481955912142</v>
+        <v>0.1624793804537177</v>
       </c>
       <c r="I14">
-        <v>0.001815394066536413</v>
+        <v>0.002214742166207095</v>
       </c>
       <c r="J14">
-        <v>0.3089539863727779</v>
+        <v>0.2657738686808031</v>
       </c>
       <c r="K14">
-        <v>0.2545164160666538</v>
+        <v>0.2256809461965084</v>
       </c>
       <c r="L14">
-        <v>0.03006418689670021</v>
+        <v>0.1119429587626026</v>
       </c>
       <c r="M14">
-        <v>1.499033455217329</v>
+        <v>0.06753613653664559</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.02997636874053811</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.480489696673743</v>
       </c>
       <c r="P14">
-        <v>0.765874683230571</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.357690457860315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.783213931014231</v>
+      </c>
+      <c r="S14">
+        <v>1.229405138667957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.342440444370368</v>
+        <v>1.280087133026115</v>
       </c>
       <c r="C15">
-        <v>0.2322687575570512</v>
+        <v>0.2520514744530544</v>
       </c>
       <c r="D15">
-        <v>0.4214348917349753</v>
+        <v>0.4213686636219052</v>
       </c>
       <c r="E15">
-        <v>0.1007864010456316</v>
+        <v>0.1007386808696289</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.3517660566407912</v>
+        <v>0.3557410766224223</v>
       </c>
       <c r="H15">
-        <v>0.1749602519174402</v>
+        <v>0.1749594413419402</v>
       </c>
       <c r="I15">
-        <v>0.001862517517438711</v>
+        <v>0.00228660681626458</v>
       </c>
       <c r="J15">
-        <v>0.3054084650698456</v>
+        <v>0.2689448481498857</v>
       </c>
       <c r="K15">
-        <v>0.2516963588259529</v>
+        <v>0.2241954254613923</v>
       </c>
       <c r="L15">
-        <v>0.02724578987168425</v>
+        <v>0.1117480299059892</v>
       </c>
       <c r="M15">
-        <v>1.474680518734118</v>
+        <v>0.06636106747540715</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.02719910915445034</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.458246263025671</v>
       </c>
       <c r="P15">
-        <v>0.7715374694519994</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.333327915237817</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.7878915440913872</v>
+      </c>
+      <c r="S15">
+        <v>1.213078725596375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.258359790515783</v>
+        <v>1.206218270955929</v>
       </c>
       <c r="C16">
-        <v>0.219205454314789</v>
+        <v>0.2396074481027028</v>
       </c>
       <c r="D16">
-        <v>0.4044289486745214</v>
+        <v>0.4046178460793897</v>
       </c>
       <c r="E16">
-        <v>0.0982200347352169</v>
+        <v>0.09835669164567307</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.3472666917181968</v>
+        <v>0.3268837114478842</v>
       </c>
       <c r="H16">
-        <v>0.162111313820958</v>
+        <v>0.1621058643251274</v>
       </c>
       <c r="I16">
-        <v>0.001714446507111944</v>
+        <v>0.002145837318504817</v>
       </c>
       <c r="J16">
-        <v>0.3062025928891643</v>
+        <v>0.2979844741700006</v>
       </c>
       <c r="K16">
-        <v>0.254346337466739</v>
+        <v>0.2300896233978982</v>
       </c>
       <c r="L16">
-        <v>0.02681622666799299</v>
+        <v>0.1154855864819933</v>
       </c>
       <c r="M16">
-        <v>1.384047576522676</v>
+        <v>0.06587290007349367</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.02694824832251808</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.377250056760602</v>
       </c>
       <c r="P16">
-        <v>0.7838993007004831</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.325275181067866</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.7927058997446039</v>
+      </c>
+      <c r="S16">
+        <v>1.230247429943034</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.217743849337637</v>
+        <v>1.168844167480444</v>
       </c>
       <c r="C17">
-        <v>0.2169814018985363</v>
+        <v>0.2385863769963521</v>
       </c>
       <c r="D17">
-        <v>0.42743176226071</v>
+        <v>0.4277522744448277</v>
       </c>
       <c r="E17">
-        <v>0.1151323453087834</v>
+        <v>0.1153653651628233</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3593391589747057</v>
+        <v>0.3281862798431376</v>
       </c>
       <c r="H17">
-        <v>0.1242958528375624</v>
+        <v>0.1242805742834747</v>
       </c>
       <c r="I17">
-        <v>0.00169469733447869</v>
+        <v>0.002122604199437106</v>
       </c>
       <c r="J17">
-        <v>0.3143053551168578</v>
+        <v>0.3185932415093262</v>
       </c>
       <c r="K17">
-        <v>0.2625695361282609</v>
+        <v>0.238629837344746</v>
       </c>
       <c r="L17">
-        <v>0.03368762512596923</v>
+        <v>0.1196608679095679</v>
       </c>
       <c r="M17">
-        <v>1.346606594614883</v>
+        <v>0.06756426130254489</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.03391060377046529</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.343891708716683</v>
       </c>
       <c r="P17">
-        <v>0.7850441832077166</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.36773213119919</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.7894872907840877</v>
+      </c>
+      <c r="S17">
+        <v>1.279451477374053</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.211561947278</v>
+        <v>1.161277357976189</v>
       </c>
       <c r="C18">
-        <v>0.2228308268199015</v>
+        <v>0.2469634762770028</v>
       </c>
       <c r="D18">
-        <v>0.490729202969419</v>
+        <v>0.4911089460055393</v>
       </c>
       <c r="E18">
-        <v>0.1565300599335693</v>
+        <v>0.1568083758160519</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3885540828223526</v>
+        <v>0.3506869837225963</v>
       </c>
       <c r="H18">
-        <v>0.07144470364810473</v>
+        <v>0.07142808436842074</v>
       </c>
       <c r="I18">
-        <v>0.001462884763758332</v>
+        <v>0.001841768573923375</v>
       </c>
       <c r="J18">
-        <v>0.3302953980224927</v>
+        <v>0.3392394430330867</v>
       </c>
       <c r="K18">
-        <v>0.2775269813231702</v>
+        <v>0.2518812412993299</v>
       </c>
       <c r="L18">
-        <v>0.05699815470821079</v>
+        <v>0.1252687480916208</v>
       </c>
       <c r="M18">
-        <v>1.350346863601658</v>
+        <v>0.07171988508917693</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.05726330598404417</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.349344855522816</v>
       </c>
       <c r="P18">
-        <v>0.7777791987951375</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.463102328178749</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.7790105111932348</v>
+      </c>
+      <c r="S18">
+        <v>1.370676486871389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.22917235370042</v>
+        <v>1.174372777309145</v>
       </c>
       <c r="C19">
-        <v>0.2373956371257435</v>
+        <v>0.2655158600846903</v>
       </c>
       <c r="D19">
-        <v>0.5872858879648675</v>
+        <v>0.5876597381253248</v>
       </c>
       <c r="E19">
-        <v>0.2235932446262225</v>
+        <v>0.2238703965343447</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4289020422896641</v>
+        <v>0.3859136834067627</v>
       </c>
       <c r="H19">
-        <v>0.02618560160256322</v>
+        <v>0.02617849299416264</v>
       </c>
       <c r="I19">
-        <v>0.001603388791874494</v>
+        <v>0.002015078128832393</v>
       </c>
       <c r="J19">
-        <v>0.3510331340025914</v>
+        <v>0.3600956409263389</v>
       </c>
       <c r="K19">
-        <v>0.2960735602704503</v>
+        <v>0.2674143855965276</v>
       </c>
       <c r="L19">
-        <v>0.1060152721752061</v>
+        <v>0.1313849489176615</v>
       </c>
       <c r="M19">
-        <v>1.386968818277495</v>
+        <v>0.07732988661379636</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1062800518905931</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.386414723210265</v>
       </c>
       <c r="P19">
-        <v>0.7673303324372753</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.592066899249602</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.7659854382092348</v>
+      </c>
+      <c r="S19">
+        <v>1.488438013837026</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.321075316825699</v>
+        <v>1.252982160273035</v>
       </c>
       <c r="C20">
-        <v>0.2718510194476664</v>
+        <v>0.3077497879119164</v>
       </c>
       <c r="D20">
-        <v>0.7743114089685719</v>
+        <v>0.7744443705044262</v>
       </c>
       <c r="E20">
-        <v>0.3597156529605243</v>
+        <v>0.3598160318870782</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5025834679924372</v>
+        <v>0.4599240463059999</v>
       </c>
       <c r="H20">
-        <v>0.0003061300430555747</v>
+        <v>0.0003126537759876591</v>
       </c>
       <c r="I20">
-        <v>0.001876966434332772</v>
+        <v>0.002331522717614831</v>
       </c>
       <c r="J20">
-        <v>0.386115910564186</v>
+        <v>0.3804730422933318</v>
       </c>
       <c r="K20">
-        <v>0.3265162989959016</v>
+        <v>0.2907122914957831</v>
       </c>
       <c r="L20">
-        <v>0.2235898524589572</v>
+        <v>0.1387192397809613</v>
       </c>
       <c r="M20">
-        <v>1.515337540768712</v>
+        <v>0.08824058020396564</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2236873024139641</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.511896358994562</v>
       </c>
       <c r="P20">
-        <v>0.7451240451020116</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.821874932103469</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.7416364880349882</v>
+      </c>
+      <c r="S20">
+        <v>1.685526436954632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.490755357470192</v>
+        <v>1.399100970057617</v>
       </c>
       <c r="C21">
-        <v>0.3067058808256888</v>
+        <v>0.3426396521056745</v>
       </c>
       <c r="D21">
-        <v>0.8709865375581387</v>
+        <v>0.8703736437677776</v>
       </c>
       <c r="E21">
-        <v>0.411086576846678</v>
+        <v>0.4106251209065306</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5367622538572476</v>
+        <v>0.557408336738348</v>
       </c>
       <c r="H21">
-        <v>0.001030177501238017</v>
+        <v>0.0009643346791918805</v>
       </c>
       <c r="I21">
-        <v>0.002579719458473129</v>
+        <v>0.002996974916648298</v>
       </c>
       <c r="J21">
-        <v>0.3975171873275372</v>
+        <v>0.3104295144647296</v>
       </c>
       <c r="K21">
-        <v>0.3328597606832098</v>
+        <v>0.2859888763074352</v>
       </c>
       <c r="L21">
-        <v>0.2609092120868155</v>
+        <v>0.1321497265913987</v>
       </c>
       <c r="M21">
-        <v>1.71087598531696</v>
+        <v>0.09344153965068358</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2604552006411183</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.686618788230959</v>
       </c>
       <c r="P21">
-        <v>0.7131093431151694</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.918530676286935</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.7171931965223521</v>
+      </c>
+      <c r="S21">
+        <v>1.707972492190123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.602287112303202</v>
+        <v>1.4945671424083</v>
       </c>
       <c r="C22">
-        <v>0.3267627802212587</v>
+        <v>0.3617041362129783</v>
       </c>
       <c r="D22">
-        <v>0.9261570234936585</v>
+        <v>0.92504570852509</v>
       </c>
       <c r="E22">
-        <v>0.438014783925496</v>
+        <v>0.4371805738501493</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5577914375070065</v>
+        <v>0.6291026859647957</v>
       </c>
       <c r="H22">
-        <v>0.001859984904100553</v>
+        <v>0.001703890667568819</v>
       </c>
       <c r="I22">
-        <v>0.002934563582019045</v>
+        <v>0.003210977858930875</v>
       </c>
       <c r="J22">
-        <v>0.4043861569638807</v>
+        <v>0.2691447690953197</v>
       </c>
       <c r="K22">
-        <v>0.3369318819010658</v>
+        <v>0.28239559882336</v>
       </c>
       <c r="L22">
-        <v>0.2789390989968865</v>
+        <v>0.1278546008048238</v>
       </c>
       <c r="M22">
-        <v>1.835293745962133</v>
+        <v>0.09689099182822147</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2781124183726575</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.795761446140176</v>
       </c>
       <c r="P22">
-        <v>0.6930851218602001</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.977698088524335</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.7028017370571007</v>
+      </c>
+      <c r="S22">
+        <v>1.71506393705701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.545494482164031</v>
+        <v>1.447375834863578</v>
       </c>
       <c r="C23">
-        <v>0.314409697080464</v>
+        <v>0.3507207138643196</v>
       </c>
       <c r="D23">
-        <v>0.896703822656832</v>
+        <v>0.8958915135558527</v>
       </c>
       <c r="E23">
-        <v>0.4236516758192295</v>
+        <v>0.423040866970041</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5479335172573485</v>
+        <v>0.5835166392590878</v>
       </c>
       <c r="H23">
-        <v>0.001391508354638304</v>
+        <v>0.001291345519021769</v>
       </c>
       <c r="I23">
-        <v>0.002438060685008736</v>
+        <v>0.002735924909325504</v>
       </c>
       <c r="J23">
-        <v>0.4014108018910179</v>
+        <v>0.2978721868722616</v>
       </c>
       <c r="K23">
-        <v>0.3358371467858312</v>
+        <v>0.2860743353062709</v>
       </c>
       <c r="L23">
-        <v>0.2693277374253142</v>
+        <v>0.1307110864959853</v>
       </c>
       <c r="M23">
-        <v>1.768865374350753</v>
+        <v>0.09577980836610323</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2687246520187614</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.739771458733173</v>
       </c>
       <c r="P23">
-        <v>0.7035533716217408</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.950461451031686</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.7095690332001894</v>
+      </c>
+      <c r="S23">
+        <v>1.721576892875788</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.325719094531394</v>
+        <v>1.257189604137466</v>
       </c>
       <c r="C24">
-        <v>0.2706927123294918</v>
+        <v>0.3068013939977732</v>
       </c>
       <c r="D24">
-        <v>0.7857704593727703</v>
+        <v>0.7859016988463452</v>
       </c>
       <c r="E24">
-        <v>0.3694045360650691</v>
+        <v>0.3695037764294611</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5093513417682374</v>
+        <v>0.4656816935706303</v>
       </c>
       <c r="H24">
-        <v>0.0002153053530478122</v>
+        <v>0.0002221386286227478</v>
       </c>
       <c r="I24">
-        <v>0.001405960780733295</v>
+        <v>0.001761658318841341</v>
       </c>
       <c r="J24">
-        <v>0.3895923505545369</v>
+        <v>0.3843798385692025</v>
       </c>
       <c r="K24">
-        <v>0.330442533397548</v>
+        <v>0.294171088663802</v>
       </c>
       <c r="L24">
-        <v>0.233019212980679</v>
+        <v>0.1400739901034029</v>
       </c>
       <c r="M24">
-        <v>1.517621547116676</v>
+        <v>0.08948790414283536</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2331156411801203</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.514343825141623</v>
       </c>
       <c r="P24">
-        <v>0.7447312912817345</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.843500314782034</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.7405472059896177</v>
+      </c>
+      <c r="S24">
+        <v>1.705884380571035</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.088120534955948</v>
+        <v>1.038798919545087</v>
       </c>
       <c r="C25">
-        <v>0.2242293237604258</v>
+        <v>0.2498492531461949</v>
       </c>
       <c r="D25">
-        <v>0.6672877299666027</v>
+        <v>0.6679883997283298</v>
       </c>
       <c r="E25">
-        <v>0.3111761387658731</v>
+        <v>0.3117080924936602</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4698010720762937</v>
+        <v>0.4273790830328181</v>
       </c>
       <c r="H25">
-        <v>0.0001179662393251402</v>
+        <v>9.151895672698807E-05</v>
       </c>
       <c r="I25">
-        <v>0.001078023140299145</v>
+        <v>0.001303304483500689</v>
       </c>
       <c r="J25">
-        <v>0.3780893484384507</v>
+        <v>0.3822932196794468</v>
       </c>
       <c r="K25">
-        <v>0.325737348348472</v>
+        <v>0.2946347633825752</v>
       </c>
       <c r="L25">
-        <v>0.1940361181373333</v>
+        <v>0.1476534441712936</v>
       </c>
       <c r="M25">
-        <v>1.247046599525589</v>
+        <v>0.08083575409554911</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1945417026038854</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.246539192118377</v>
       </c>
       <c r="P25">
-        <v>0.791647350902247</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.735086967522591</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7809617616239883</v>
+      </c>
+      <c r="S25">
+        <v>1.625413673283788</v>
       </c>
     </row>
   </sheetData>
